--- a/explorepy/Datasets/excel_practice.xlsx
+++ b/explorepy/Datasets/excel_practice.xlsx
@@ -480,30 +480,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jessica Schmitt</t>
+          <t>Julie Price</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>998 Haley Run Apt. 168
-Jeremyborough, MI 12805</t>
+          <t>1359 Lee Overpass
+Williamsberg, MP 20354</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>christinejackson@example.com</t>
+          <t>thomasnicholas@example.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>274-248-7521x19682</t>
+          <t>001-461-520-1522x488</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45566.01916666667</v>
+        <v>45216.27978009259</v>
       </c>
       <c r="G2" t="n">
-        <v>3531</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="3">
@@ -512,30 +512,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johnathan Villa</t>
+          <t>Christian Walker</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>815 Angela Burgs
-West William, TN 93754</t>
+          <t>182 Lauren Plain
+East Pamela, DE 58767</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>kristenmiller@example.com</t>
+          <t>qmarks@example.net</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>+1-883-457-0704</t>
+          <t>679.880.8525x2375</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45107.75016203704</v>
+        <v>45219.18180555556</v>
       </c>
       <c r="G3" t="n">
-        <v>2233</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="4">
@@ -544,30 +544,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michelle Boyd</t>
+          <t>Julie White</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>345 Lisa Villages Suite 632
-Port Michaelville, AK 72592</t>
+          <t>315 Chloe Ville
+Feliciaview, MH 66413</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>marywalters@example.com</t>
+          <t>mitchell92@example.net</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>348.968.0288</t>
+          <t>(934)457-5055</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45198.3908912037</v>
+        <v>45094.76732638889</v>
       </c>
       <c r="G4" t="n">
-        <v>8716</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="5">
@@ -576,30 +576,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laurie Johnston</t>
+          <t>Mark Villanueva</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22934 Nicholas Ville Suite 770
-Townsendhaven, PW 97780</t>
+          <t>9549 Holland Rest
+New Jamie, ME 01884</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>coxjason@example.com</t>
+          <t>robin29@example.net</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>+1-352-284-0524x18846</t>
+          <t>567-644-0746</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44930.06828703704</v>
+        <v>45412.97756944445</v>
       </c>
       <c r="G5" t="n">
-        <v>4465</v>
+        <v>6555</v>
       </c>
     </row>
     <row r="6">
@@ -608,30 +608,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thomas Woods</t>
+          <t>Troy Moore</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>67461 Christopher Streets Suite 435
-Gardnertown, MD 05551</t>
+          <t>024 Olson Street Apt. 652
+Port Mark, WA 29447</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nsullivan@example.com</t>
+          <t>bradleykathleen@example.net</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+1-226-532-0354</t>
+          <t>5216825990</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45531.36090277778</v>
+        <v>45262.05946759259</v>
       </c>
       <c r="G6" t="n">
-        <v>1427</v>
+        <v>8937</v>
       </c>
     </row>
     <row r="7">
@@ -640,30 +640,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sarah Vaughn</t>
+          <t>Stacy Petty</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8616 Kevin Mews
-Weaverville, NH 49630</t>
+          <t>98737 Kelly Glen Apt. 351
+Gonzalezhaven, IN 45862</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>jessicacarter@example.com</t>
+          <t>taylordarren@example.net</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>428.974.5810x506</t>
+          <t>263-211-0317x53989</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45065.05307870371</v>
+        <v>45019.42112268518</v>
       </c>
       <c r="G7" t="n">
-        <v>6914</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="8">
@@ -672,30 +672,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Angela Erickson</t>
+          <t>Elizabeth Sutton</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1227 Merritt Isle
-Williamhaven, GU 70238</t>
+          <t>Unit 1131 Box 8711
+DPO AP 52752</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>fnichols@example.org</t>
+          <t>lhudson@example.net</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>+1-716-485-1511</t>
+          <t>801.697.6814x714</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45573.43746527778</v>
+        <v>45201.43753472222</v>
       </c>
       <c r="G8" t="n">
-        <v>3453</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="9">
@@ -704,30 +704,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Albert Salinas</t>
+          <t>Mrs. Kimberly Price</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>USCGC Thomas
-FPO AE 99666</t>
+          <t>09758 Andrew Centers Apt. 579
+Websterbury, WY 09413</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>eddiethompson@example.com</t>
+          <t>ericacervantes@example.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(393)983-0118</t>
+          <t>519.277.9411</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45447.90289351852</v>
+        <v>44952.05420138889</v>
       </c>
       <c r="G9" t="n">
-        <v>7008</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="10">
@@ -736,30 +736,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mr. Brian Scott</t>
+          <t>Melissa Scott</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2571 Cassidy Circle
-East James, WV 16834</t>
+          <t>446 Sylvia Pines Suite 307
+South Ryanmouth, SD 38902</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>jackierobbins@example.com</t>
+          <t>shaffertom@example.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>001-848-687-0933x604</t>
+          <t>(922)627-9117x81169</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45022.08817129629</v>
+        <v>45526.78196759259</v>
       </c>
       <c r="G10" t="n">
-        <v>9253</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="11">
@@ -768,30 +768,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>David Reynolds</t>
+          <t>Maria Hernandez</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5609 Vanessa Crossing Suite 438
-Oliverhaven, FM 50366</t>
+          <t>121 Rodney Village
+East Tanya, NJ 09579</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rosskathleen@example.net</t>
+          <t>paulawhite@example.org</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(559)557-3002</t>
+          <t>(251)409-9924x916</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45448.35815972222</v>
+        <v>45560.02731481481</v>
       </c>
       <c r="G11" t="n">
-        <v>6248</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="12">
@@ -800,30 +800,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Krystal Smith</t>
+          <t>Sophia Wilson</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>600 Richard Lights Suite 335
-New Ashleyview, AR 35101</t>
+          <t>4674 Sarah Fall
+North Brianfurt, TN 93743</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>catherinemathis@example.org</t>
+          <t>robinpollard@example.org</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>897.643.8944</t>
+          <t>339.864.3575</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45018.63326388889</v>
+        <v>45015.50761574074</v>
       </c>
       <c r="G12" t="n">
-        <v>1316</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="13">
@@ -832,30 +832,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jacob Moreno</t>
+          <t>Luke Rowland</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>49573 Mary Groves
-Colemanmouth, IL 44614</t>
+          <t>30880 Davis Tunnel
+West Anthony, TN 27576</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>sarah66@example.com</t>
+          <t>jeffreytodd@example.org</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>+1-840-302-0901</t>
+          <t>(500)386-3647</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45559.0021412037</v>
+        <v>44963.79641203704</v>
       </c>
       <c r="G13" t="n">
-        <v>4045</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="14">
@@ -864,30 +864,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Elizabeth Willis</t>
+          <t>Debra Hall</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>603 Carl Estate
-South Stephanie, NE 89385</t>
+          <t>07006 Paul Curve
+South Kristinhaven, VT 89407</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>meganday@example.org</t>
+          <t>wayne00@example.org</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(852)405-9339</t>
+          <t>429-298-8318</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45363.53714120371</v>
+        <v>45334.40075231482</v>
       </c>
       <c r="G14" t="n">
-        <v>7528</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="15">
@@ -896,30 +896,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nancy Webster</t>
+          <t>Lisa Bailey</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8568 John Pass Apt. 981
-East Sydneyview, MO 48322</t>
+          <t>55876 Bryant Crest Apt. 626
+Castanedaland, AL 08039</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>raymondharris@example.net</t>
+          <t>greggadams@example.org</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(365)321-2204x98945</t>
+          <t>+1-264-926-9572x07144</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44990.54795138889</v>
+        <v>45097.48549768519</v>
       </c>
       <c r="G15" t="n">
-        <v>7121</v>
+        <v>9166</v>
       </c>
     </row>
     <row r="16">
@@ -928,30 +928,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>David Pope</t>
+          <t>Austin Harvey</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>97126 Sergio Lock Apt. 662
-East Brenda, ID 57453</t>
+          <t>82672 Nicole Fords Apt. 636
+New Andrew, DE 01219</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>john50@example.org</t>
+          <t>fturner@example.org</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>001-799-406-3777x33044</t>
+          <t>593-243-1993</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45645.39954861111</v>
+        <v>45594.5590162037</v>
       </c>
       <c r="G16" t="n">
-        <v>5585</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="17">
@@ -960,30 +960,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Susan Carter</t>
+          <t>Amber Lee</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>749 Collins Radial
-Leeton, MO 81303</t>
+          <t>USNS Russell
+FPO AA 01075</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>timothy39@example.com</t>
+          <t>katieherrera@example.net</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9085357788</t>
+          <t>781-716-7922</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45541.17787037037</v>
+        <v>45597.02601851852</v>
       </c>
       <c r="G17" t="n">
-        <v>7408</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="18">
@@ -992,30 +992,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Marissa Raymond</t>
+          <t>Justin Sutton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>33510 Ariana Stravenue Suite 110
-West Diane, MH 89025</t>
+          <t>942 Reed Loaf Suite 403
+West Sean, SC 67639</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ryan28@example.org</t>
+          <t>joeburch@example.com</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>001-911-700-3071x31451</t>
+          <t>+1-466-706-7071</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45185.39413194444</v>
+        <v>45128.06552083333</v>
       </c>
       <c r="G18" t="n">
-        <v>1734</v>
+        <v>6754</v>
       </c>
     </row>
     <row r="19">
@@ -1024,30 +1024,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kyle Perry</t>
+          <t>April Medina</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>270 Moore Circles
-New Spencermouth, GU 94247</t>
+          <t>00451 Marshall Mall
+West Cody, MA 64719</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>mccoychristopher@example.com</t>
+          <t>dixonryan@example.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(753)872-1537</t>
+          <t>462-606-8588x99618</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45637.27239583333</v>
+        <v>45048.03825231481</v>
       </c>
       <c r="G19" t="n">
-        <v>5093</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="20">
@@ -1056,30 +1056,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tanner Silva</t>
+          <t>Mr. Jonathan Carlson MD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3622 Frey Views Suite 835
-Lake Robert, NH 72771</t>
+          <t>575 Fletcher Lane
+West John, MH 40188</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ochoalisa@example.org</t>
+          <t>vsmith@example.net</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>278.653.1479x37587</t>
+          <t>619-298-6811x900</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45001.96431712963</v>
+        <v>45517.09591435185</v>
       </c>
       <c r="G20" t="n">
-        <v>6020</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="21">
@@ -1088,30 +1088,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lori Lee</t>
+          <t>Barbara Walker</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>776 Little Forge
-North Tiffanystad, VT 83925</t>
+          <t>20451 Clay Ports Suite 835
+Port Dominicport, ME 13808</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>anitajackson@example.net</t>
+          <t>amberpierce@example.net</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>001-515-738-3088</t>
+          <t>913-750-0628x52309</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45386.58534722222</v>
+        <v>45501.00409722222</v>
       </c>
       <c r="G21" t="n">
-        <v>7513</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="22">
@@ -1120,30 +1120,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Scott Compton</t>
+          <t>Jennifer Hernandez</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>764 Mendoza Keys Suite 837
-South Seanberg, MH 01542</t>
+          <t>518 Matthew Forges
+Patrickstad, WA 78366</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>shannon16@example.com</t>
+          <t>sanchezdaniel@example.org</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>403-875-5489</t>
+          <t>(297)891-9263</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44973.73331018518</v>
+        <v>45438.66549768519</v>
       </c>
       <c r="G22" t="n">
-        <v>6145</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="23">
@@ -1152,30 +1152,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vickie Malone</t>
+          <t>Dan Smith</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>596 Strickland Rest
-Hutchinsonstad, DE 01865</t>
+          <t>0394 Jennifer Track
+East Jeffreyfurt, NJ 77250</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>berryallison@example.org</t>
+          <t>jennifer29@example.net</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>651-863-9741</t>
+          <t>001-296-378-7091x836</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45550.94456018518</v>
+        <v>45591.55765046296</v>
       </c>
       <c r="G23" t="n">
-        <v>2902</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="24">
@@ -1184,30 +1184,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cindy Hanson</t>
+          <t>Mrs. Kathryn Hughes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>USS Turner
-FPO AE 38646</t>
+          <t>9075 Johnson Village Apt. 970
+Evansburgh, TN 18106</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rodriguezjonathan@example.org</t>
+          <t>theresashaw@example.net</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>001-676-839-8435x08515</t>
+          <t>323-250-7295</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45300.54833333333</v>
+        <v>45533.86979166666</v>
       </c>
       <c r="G24" t="n">
-        <v>5951</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="25">
@@ -1216,30 +1216,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Heather Williams</t>
+          <t>Madison Herrera</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22673 Annette Isle Suite 679
-North Brad, NC 78638</t>
+          <t>081 Victor Fords Apt. 640
+Ruizfurt, CA 66970</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>zavalajohn@example.com</t>
+          <t>julian99@example.org</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>001-847-744-3426</t>
+          <t>+1-508-931-6546x8491</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45461.70850694444</v>
+        <v>45350.43387731481</v>
       </c>
       <c r="G25" t="n">
-        <v>4335</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="26">
@@ -1248,30 +1248,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chelsea Campbell DVM</t>
+          <t>Amanda Glenn</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>41313 Cody Inlet
-Dillonside, MT 29053</t>
+          <t>839 Murphy Turnpike Apt. 639
+Lake Christopherville, KY 79664</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>hortonbetty@example.com</t>
+          <t>gonzalesthomas@example.org</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(283)895-8456x64268</t>
+          <t>275-531-0176x488</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45626.58428240741</v>
+        <v>45122.58956018519</v>
       </c>
       <c r="G26" t="n">
-        <v>7627</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="27">
@@ -1280,30 +1280,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Anthony Williams</t>
+          <t>Brett Duffy</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>928 Erin Oval Apt. 953
-Vangmouth, MD 14259</t>
+          <t>033 Sherman Corner
+Lake Justinburgh, WV 57849</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>gclark@example.net</t>
+          <t>tmartinez@example.org</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>+1-543-522-5734</t>
+          <t>5997067921</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45572.77666666666</v>
+        <v>45504.53653935185</v>
       </c>
       <c r="G27" t="n">
-        <v>7183</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="28">
@@ -1312,30 +1312,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ralph Powell</t>
+          <t>Linda Reed</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1970 Michael Row Apt. 193
-Port Christian, NH 47149</t>
+          <t>0504 Heather Summit
+East Antoniotown, GA 41903</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>kelleynathan@example.net</t>
+          <t>campbellpeter@example.com</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(464)411-9186x78016</t>
+          <t>471-226-5283x7410</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45123.65824074074</v>
+        <v>45275.06648148148</v>
       </c>
       <c r="G28" t="n">
-        <v>1715</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="29">
@@ -1344,30 +1344,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>James Estrada</t>
+          <t>Katherine Phelps</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2086 Bryant Gardens
-Walkerton, MP 89896</t>
+          <t>USNV Clark
+FPO AP 46313</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>emily55@example.net</t>
+          <t>vangjessica@example.net</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(282)582-9930x40853</t>
+          <t>001-208-738-1620</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45233.84444444445</v>
+        <v>45188.47715277778</v>
       </c>
       <c r="G29" t="n">
-        <v>6191</v>
+        <v>8809</v>
       </c>
     </row>
     <row r="30">
@@ -1376,30 +1376,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Robert Thompson</t>
+          <t>Stephanie Bennett</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4795 Harris Junction Suite 328
-South Rebeccafurt, SC 43155</t>
+          <t>2571 Griffin Turnpike Apt. 980
+Carterville, DC 72780</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>desiree31@example.net</t>
+          <t>kim32@example.org</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>001-918-970-5947x13178</t>
+          <t>+1-834-872-4214x5792</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45427.4978587963</v>
+        <v>45091.21708333334</v>
       </c>
       <c r="G30" t="n">
-        <v>3488</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="31">
@@ -1408,30 +1408,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mario Brown</t>
+          <t>Matthew Jacobson</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>071 Obrien Port
-North Rileyland, NY 87600</t>
+          <t>573 Kimberly Isle Apt. 632
+Tuckerfurt, IA 96563</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>wjimenez@example.net</t>
+          <t>briannaholloway@example.org</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>001-868-555-3910</t>
+          <t>001-999-761-7065x2915</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45609.43829861111</v>
+        <v>45072.77471064815</v>
       </c>
       <c r="G31" t="n">
-        <v>4917</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="32">
@@ -1440,30 +1440,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jessica Guerra</t>
+          <t>Marie Stephens</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>36920 James Plain Suite 487
-New Deborahton, OH 86488</t>
+          <t>0810 Campbell Harbors Apt. 240
+North Larry, ME 90269</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>brownlinda@example.net</t>
+          <t>vlawson@example.net</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>(847)760-7298</t>
+          <t>4732455312</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45066.86215277778</v>
+        <v>45089.78125</v>
       </c>
       <c r="G32" t="n">
-        <v>3384</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="33">
@@ -1472,30 +1472,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tina Phelps MD</t>
+          <t>Grace Roberts</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>36258 Clark Manor Apt. 999
-Christinaport, IA 38209</t>
+          <t>490 Erica Wells Apt. 624
+West Williamstad, MA 79068</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>nicole49@example.net</t>
+          <t>waynejennings@example.org</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5657569596</t>
+          <t>671-540-1217</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45020.9578587963</v>
+        <v>45094.36711805555</v>
       </c>
       <c r="G33" t="n">
-        <v>2706</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="34">
@@ -1504,30 +1504,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tina Rodriguez</t>
+          <t>Tara Mcgee</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>545 Wesley Center Apt. 522
-West Edward, DE 84666</t>
+          <t>613 Edward Burgs Suite 261
+Crossside, FL 11013</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>udavis@example.net</t>
+          <t>deborahnelson@example.net</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>235.892.9535x1441</t>
+          <t>001-841-677-1775x93166</t>
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45440.77100694444</v>
+        <v>44996.41296296296</v>
       </c>
       <c r="G34" t="n">
-        <v>2608</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="35">
@@ -1536,30 +1536,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Danielle Bradshaw</t>
+          <t>Brenda Nguyen</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5586 Wesley Trafficway Apt. 475
-Lake Amber, MT 91435</t>
+          <t>778 Macdonald Lights Suite 654
+Lake George, KS 38731</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>william42@example.com</t>
+          <t>kayla13@example.org</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>422.496.2429</t>
+          <t>671-483-4379x312</t>
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45148.39015046296</v>
+        <v>45452.24211805555</v>
       </c>
       <c r="G35" t="n">
-        <v>3248</v>
+        <v>8636</v>
       </c>
     </row>
     <row r="36">
@@ -1568,30 +1568,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cindy Mitchell</t>
+          <t>Courtney Weiss</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>149 Romero Mount Suite 170
-North Kristen, AS 45991</t>
+          <t>6786 Wyatt Course Suite 104
+Port Kevin, WI 23817</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>luisramsey@example.com</t>
+          <t>vschultz@example.org</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>(334)870-8566</t>
+          <t>243-868-0746x103</t>
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45071.27983796296</v>
+        <v>45119.7277662037</v>
       </c>
       <c r="G36" t="n">
-        <v>8948</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="37">
@@ -1600,30 +1600,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nicholas Chen</t>
+          <t>Christopher Hayden</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>04538 Christian Crescent
-Smithport, ME 98708</t>
+          <t>PSC 2786, Box 0159
+APO AA 51737</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>jamesgreene@example.org</t>
+          <t>lmitchell@example.com</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>642.725.9746</t>
+          <t>336.931.6127x35021</t>
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45193.25284722223</v>
+        <v>45507.97194444444</v>
       </c>
       <c r="G37" t="n">
-        <v>4882</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="38">
@@ -1632,30 +1632,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kelly Hill</t>
+          <t>Kari Lam</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Unit 1689 Box 0322
-DPO AP 98226</t>
+          <t>22969 Estrada Tunnel Suite 570
+Rileymouth, HI 75918</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>xstevenson@example.org</t>
+          <t>lorihunt@example.org</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>669.324.9545x733</t>
+          <t>+1-519-637-0304x032</t>
         </is>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45623.48133101852</v>
+        <v>45348.89103009259</v>
       </c>
       <c r="G38" t="n">
-        <v>8979</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="39">
@@ -1664,30 +1664,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Debra Powers</t>
+          <t>Christopher Perry</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>97311 Allen Valley Suite 043
-East Jeremyfurt, DE 12569</t>
+          <t>24236 Stone Turnpike
+South Hannah, RI 07965</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>jessica20@example.com</t>
+          <t>markgonzalez@example.org</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>+1-755-330-8579</t>
+          <t>370.906.1374x0252</t>
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45637.51280092593</v>
+        <v>45443.65517361111</v>
       </c>
       <c r="G39" t="n">
-        <v>3887</v>
+        <v>8732</v>
       </c>
     </row>
     <row r="40">
@@ -1696,30 +1696,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Michael Curry</t>
+          <t>Mr. Gary Solis</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>585 Kathryn Points
-Port Miguel, SC 97526</t>
+          <t>Unit 7998 Box 5426
+DPO AP 15092</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>wilkersonjeremy@example.com</t>
+          <t>ryan17@example.org</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>001-866-711-0872</t>
+          <t>7285400383</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44935.94954861111</v>
+        <v>45365.5575462963</v>
       </c>
       <c r="G40" t="n">
-        <v>9004</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="41">
@@ -1728,30 +1728,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Katrina Padilla</t>
+          <t>Sergio Stuart</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8959 Adams Vista
-New Justinview, OH 91645</t>
+          <t>70975 Ramirez Tunnel Suite 201
+West Paul, VT 47282</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>sherriwilson@example.net</t>
+          <t>michaelward@example.com</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>001-986-486-3863x9494</t>
+          <t>463-944-2176</t>
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45074.49400462963</v>
+        <v>45217.2668287037</v>
       </c>
       <c r="G41" t="n">
-        <v>8494</v>
+        <v>7786</v>
       </c>
     </row>
     <row r="42">
@@ -1760,30 +1760,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Terry Valencia</t>
+          <t>Patrick Marquez</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>29181 Smith Isle
-Kristinaside, OH 92027</t>
+          <t>380 Diaz Corner
+Griffinview, MI 04619</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>brownwilliam@example.org</t>
+          <t>wellsjonathan@example.net</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>(715)364-0259x55172</t>
+          <t>869.413.2735x619</t>
         </is>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45447.44693287037</v>
+        <v>45594.80836805556</v>
       </c>
       <c r="G42" t="n">
-        <v>3429</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="43">
@@ -1792,30 +1792,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Patricia Bridges</t>
+          <t>Diane Erickson</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>469 Karen Tunnel
-New Jared, TN 26304</t>
+          <t>2634 Griffith Landing
+Derrickton, CT 99925</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>qmoore@example.net</t>
+          <t>iklein@example.net</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>+1-389-597-7660x329</t>
+          <t>(304)643-8555</t>
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44978.87304398148</v>
+        <v>45079.33560185185</v>
       </c>
       <c r="G43" t="n">
-        <v>2499</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="44">
@@ -1824,30 +1824,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Betty Martinez</t>
+          <t>Shelby Kidd</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0224 Friedman Views
-Stewartside, NJ 27859</t>
+          <t>Unit 0675 Box 6014
+DPO AP 16589</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>odonnelljeremy@example.com</t>
+          <t>lindadavila@example.com</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>(217)818-6167</t>
+          <t>391-285-3125</t>
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45250.28226851852</v>
+        <v>45510.87895833333</v>
       </c>
       <c r="G44" t="n">
-        <v>7374</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="45">
@@ -1856,30 +1856,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Shari Johnson</t>
+          <t>Andrea Bryant</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>161 Schneider Gardens Suite 639
-Martinville, SD 19609</t>
+          <t>70037 Sellers River
+West Ricardohaven, TX 72807</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>wfigueroa@example.com</t>
+          <t>whardy@example.net</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>9287371273</t>
+          <t>825-358-0693</t>
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45141.74912037037</v>
+        <v>44999.20357638889</v>
       </c>
       <c r="G45" t="n">
-        <v>3419</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="46">
@@ -1888,30 +1888,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Michelle Gardner</t>
+          <t>Megan Best</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>87371 Leah Forges
-East Maria, PW 16171</t>
+          <t>6491 Fry Courts Apt. 429
+Lake Christopher, VT 34627</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>jfranklin@example.org</t>
+          <t>edwardsamber@example.net</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>371-406-5726x07565</t>
+          <t>290.444.2959x32836</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45521.97578703704</v>
+        <v>45504.74271990741</v>
       </c>
       <c r="G46" t="n">
-        <v>4362</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="47">
@@ -1920,30 +1920,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jill Garcia</t>
+          <t>Robert Bowen</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PSC 6507, Box 5741
-APO AP 90055</t>
+          <t>0625 Steven Tunnel
+East Robert, HI 46373</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>fadkins@example.net</t>
+          <t>jacquelinehill@example.org</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>690-499-4078</t>
+          <t>525.882.1216x8571</t>
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44947.69025462963</v>
+        <v>45076.81069444444</v>
       </c>
       <c r="G47" t="n">
-        <v>6707</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="48">
@@ -1952,30 +1952,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Timothy Lewis</t>
+          <t>Gary Harrell</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>530 Saunders Springs Suite 018
-East Kevin, SC 77475</t>
+          <t>27492 James Brooks Suite 030
+Nicolebury, FM 37383</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>hannah07@example.net</t>
+          <t>jamie54@example.org</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7097713125</t>
+          <t>981.554.3010</t>
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45410.5447337963</v>
+        <v>45145.8165625</v>
       </c>
       <c r="G48" t="n">
-        <v>7471</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="49">
@@ -1984,30 +1984,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Kara Carson</t>
+          <t>Donna Collins</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4753 Gonzalez Mountain Suite 953
-New Jennifer, DE 76672</t>
+          <t>9288 Mary Trail
+Port Tracyhaven, PW 55439</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>alexisjones@example.org</t>
+          <t>lesliewhite@example.com</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>242.437.0892</t>
+          <t>(770)220-2207x963</t>
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45297.14356481482</v>
+        <v>45455.82540509259</v>
       </c>
       <c r="G49" t="n">
-        <v>4320</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="50">
@@ -2016,30 +2016,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Veronica Taylor</t>
+          <t>Jonathan Klein</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>53744 Carpenter Keys Suite 327
-Port Aaron, AK 01941</t>
+          <t>73755 Sharon Unions
+North Heatherchester, UT 97065</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>mcdonalddarrell@example.com</t>
+          <t>sellersleonard@example.com</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>001-302-650-6270x449</t>
+          <t>324.790.1554</t>
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>45266.59045138889</v>
+        <v>45197.46778935185</v>
       </c>
       <c r="G50" t="n">
-        <v>5085</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="51">
@@ -2048,30 +2048,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Natalie Houston</t>
+          <t>Shawn Garrett</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7925 Kimberly Lodge Apt. 864
-Benjaminstad, PR 28108</t>
+          <t>007 Veronica Landing
+North Lisaview, CT 66020</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>matthew97@example.net</t>
+          <t>robert97@example.com</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>452-785-0797</t>
+          <t>001-505-259-5689</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45603.40163194444</v>
+        <v>45418.47540509259</v>
       </c>
       <c r="G51" t="n">
-        <v>7285</v>
+        <v>7222</v>
       </c>
     </row>
     <row r="52">
@@ -2080,30 +2080,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Kristopher Rojas</t>
+          <t>Keith Harding</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4897 Richards Drive
-Davidborough, NM 70445</t>
+          <t>37338 Mccormick Points Apt. 091
+Port Michelleton, MA 59425</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>laracynthia@example.net</t>
+          <t>nicholas94@example.org</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>001-852-443-5788x00487</t>
+          <t>+1-255-883-4838x901</t>
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45289.23618055556</v>
+        <v>45646.02173611111</v>
       </c>
       <c r="G52" t="n">
-        <v>3400</v>
+        <v>9036</v>
       </c>
     </row>
     <row r="53">
@@ -2112,30 +2112,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Susan Hernandez</t>
+          <t>Steven Mendoza</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>70447 Estes Inlet Suite 130
-Mariahland, IL 57408</t>
+          <t>755 Lewis Mall Apt. 561
+West Kenneth, WI 12663</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>tinajohnson@example.com</t>
+          <t>bryan77@example.net</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>327-242-9245x0854</t>
+          <t>001-471-811-6614x911</t>
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45582.90710648148</v>
+        <v>45252.57450231481</v>
       </c>
       <c r="G53" t="n">
-        <v>8294</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="54">
@@ -2144,30 +2144,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>James Carroll</t>
+          <t>Chase Davis</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Unit 6957 Box 8381
-DPO AE 70987</t>
+          <t>20361 Freeman Parkways
+New Jeffreyton, GA 72860</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>holly71@example.com</t>
+          <t>oallen@example.org</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>+1-596-891-3871x4239</t>
+          <t>(325)714-9098x8608</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45548.47498842593</v>
+        <v>45636.68770833333</v>
       </c>
       <c r="G54" t="n">
-        <v>7839</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="55">
@@ -2176,30 +2176,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Randall Hunter</t>
+          <t>Samantha Pruitt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>059 Pearson Trafficway
-New Jennifertown, NJ 25625</t>
+          <t>08484 Wilson Brook Apt. 978
+Perezside, OR 94895</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>andrewanderson@example.net</t>
+          <t>bakerlarry@example.org</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>001-436-314-1849x13371</t>
+          <t>001-336-593-6176x10154</t>
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45425.97552083333</v>
+        <v>45471.00423611111</v>
       </c>
       <c r="G55" t="n">
-        <v>7894</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="56">
@@ -2208,30 +2208,30 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dr. Amanda Bartlett</t>
+          <t>Jennifer Johnson</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>35119 Brittany Hill
-Susanchester, LA 21571</t>
+          <t>37272 Paul Loop Apt. 218
+Murrayshire, TN 97499</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>francojohn@example.net</t>
+          <t>bayers@example.com</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>207-962-0999x886</t>
+          <t>(440)272-0889x320</t>
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45641.73136574074</v>
+        <v>45212.7803587963</v>
       </c>
       <c r="G56" t="n">
-        <v>7658</v>
+        <v>6414</v>
       </c>
     </row>
     <row r="57">
@@ -2240,30 +2240,30 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Donna Bolton DVM</t>
+          <t>Margaret Lee</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Unit 1466 Box 5066
-DPO AE 66135</t>
+          <t>306 Kimberly Gardens
+Annaborough, FM 46188</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>kristin79@example.net</t>
+          <t>rick37@example.org</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>744-442-2675x10289</t>
+          <t>001-546-939-1769</t>
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45017.06707175926</v>
+        <v>45156.24391203704</v>
       </c>
       <c r="G57" t="n">
-        <v>3744</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="58">
@@ -2272,30 +2272,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Amanda Green</t>
+          <t>Kimberly Johnson</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>890 Michelle Lights
-Lake Ryan, UT 90464</t>
+          <t>8754 Rich Ville Suite 353
+Gregoryfurt, FL 51266</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>john76@example.org</t>
+          <t>bradleydillon@example.net</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>742-970-3287</t>
+          <t>503-628-4032x8102</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45567.10125</v>
+        <v>45051.77097222222</v>
       </c>
       <c r="G58" t="n">
-        <v>5232</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="59">
@@ -2304,30 +2304,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Linda Gardner</t>
+          <t>Paul Davies</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>768 Melissa Skyway
-South Melissaville, FL 84889</t>
+          <t>4693 Jerome Mountains
+Bellview, AL 95996</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>daniellewright@example.org</t>
+          <t>pmills@example.org</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>001-491-535-9487x6343</t>
+          <t>+1-201-516-7363x267</t>
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45569.90357638889</v>
+        <v>45372.32916666667</v>
       </c>
       <c r="G59" t="n">
-        <v>3718</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="60">
@@ -2336,30 +2336,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Nicole Hurst</t>
+          <t>Timothy Roberts</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4549 Hernandez Trail Apt. 626
-West Maria, NH 17230</t>
+          <t>267 Castro Valley Suite 759
+Michaelton, OH 58862</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rick33@example.net</t>
+          <t>scotttorres@example.net</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>+1-207-401-0821x322</t>
+          <t>3629189043</t>
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45016.03822916667</v>
+        <v>44961.09829861111</v>
       </c>
       <c r="G60" t="n">
-        <v>5989</v>
+        <v>8475</v>
       </c>
     </row>
     <row r="61">
@@ -2368,30 +2368,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jessica Gonzalez</t>
+          <t>Rebecca Santana</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4287 Harris Points Apt. 257
-West Kevinton, WA 37336</t>
+          <t>369 Williams Streets Suite 065
+Bensonhaven, TN 17546</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>thomaspeters@example.org</t>
+          <t>rhonda43@example.com</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>+1-800-689-8594</t>
+          <t>827.715.2805x2343</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45190.640625</v>
+        <v>45201.08315972222</v>
       </c>
       <c r="G61" t="n">
-        <v>4494</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="62">
@@ -2400,30 +2400,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Danielle Wallace</t>
+          <t>Zachary Mckinney</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>85795 Thompson Station Suite 344
-West Kaylee, MS 47594</t>
+          <t>21859 Veronica Inlet Apt. 938
+West Coreyfort, MD 83357</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>kyleadkins@example.com</t>
+          <t>ashley76@example.org</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>(488)924-9757x12215</t>
+          <t>001-207-879-8142x360</t>
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45620.31731481481</v>
+        <v>45360.31126157408</v>
       </c>
       <c r="G62" t="n">
-        <v>5017</v>
+        <v>9478</v>
       </c>
     </row>
     <row r="63">
@@ -2432,30 +2432,30 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Bonnie Nelson</t>
+          <t>Kathy Duncan</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>481 Debbie Burg Suite 496
-Reyesborough, AL 60245</t>
+          <t>USNS Black
+FPO AA 71591</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>onealalison@example.org</t>
+          <t>leonardstephen@example.net</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>001-391-329-1517x8843</t>
+          <t>(313)783-3943x49416</t>
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44962.16703703703</v>
+        <v>45245.60243055555</v>
       </c>
       <c r="G63" t="n">
-        <v>3470</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="64">
@@ -2464,30 +2464,30 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nicole Harris</t>
+          <t>Allison Myers</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2612 Brady Well Suite 257
-South Eric, MH 14717</t>
+          <t>528 Tina Prairie Suite 693
+North David, VA 81070</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>bkline@example.net</t>
+          <t>raymondwhite@example.com</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>(804)373-6975</t>
+          <t>438.788.5697</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>45332.49958333333</v>
+        <v>44929.01710648148</v>
       </c>
       <c r="G64" t="n">
-        <v>3021</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="65">
@@ -2496,30 +2496,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sara Brown</t>
+          <t>Katelyn Davis</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>502 Hardin Turnpike
-East Cassandra, VT 78404</t>
+          <t>3426 Reed Forks
+Cruzside, MD 08177</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>bowersjackson@example.org</t>
+          <t>qzhang@example.net</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>898-852-9913x49868</t>
+          <t>368.606.8947x66588</t>
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45138.22806712963</v>
+        <v>45531.47857638889</v>
       </c>
       <c r="G65" t="n">
-        <v>8685</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="66">
@@ -2528,30 +2528,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Danielle Munoz</t>
+          <t>John Tate</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>30322 Hoover Row Apt. 740
-East Jacobfort, MN 82525</t>
+          <t>070 Roger Square Suite 950
+Port Hannahshire, IL 87022</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>kathyjames@example.com</t>
+          <t>tranjacob@example.org</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>001-807-994-3060x1192</t>
+          <t>893.403.6687</t>
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45501.10072916667</v>
+        <v>45205.69833333333</v>
       </c>
       <c r="G66" t="n">
-        <v>8572</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="67">
@@ -2560,30 +2560,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Zachary Alexander</t>
+          <t>Patricia Eaton PhD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>65505 Timothy Land
-West Wandaburgh, AZ 69232</t>
+          <t>9116 James Landing Suite 102
+New Danielle, TN 30198</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>qball@example.org</t>
+          <t>reedsamantha@example.net</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>001-871-653-2189</t>
+          <t>2055692254</t>
         </is>
       </c>
       <c r="F67" s="2" t="n">
-        <v>45240.00363425926</v>
+        <v>45323.08627314815</v>
       </c>
       <c r="G67" t="n">
-        <v>7046</v>
+        <v>9825</v>
       </c>
     </row>
     <row r="68">
@@ -2592,30 +2592,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jeffrey Hill</t>
+          <t>Richard Graham</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>786 Pena Branch
-New Thomaston, AL 14292</t>
+          <t>912 Hogan Squares Apt. 646
+Lisaton, SD 35380</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>daniel09@example.com</t>
+          <t>johnallen@example.com</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3078051851</t>
+          <t>001-970-627-6604x995</t>
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45259.48878472222</v>
+        <v>45475.73512731482</v>
       </c>
       <c r="G68" t="n">
-        <v>2625</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="69">
@@ -2624,30 +2624,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Frank Mullen</t>
+          <t>Collin Garcia</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2141 Douglas Locks
-South Arthurtown, MI 24044</t>
+          <t>PSC 8329, Box 3478
+APO AP 56608</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>gutierrezcarrie@example.org</t>
+          <t>derek45@example.org</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>(435)452-6105x74805</t>
+          <t>001-563-666-1923x4017</t>
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45596.90380787037</v>
+        <v>45174.88143518518</v>
       </c>
       <c r="G69" t="n">
-        <v>5624</v>
+        <v>9832</v>
       </c>
     </row>
     <row r="70">
@@ -2656,30 +2656,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Michael Leach</t>
+          <t>Leah Becker</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>22693 Karen Mission Suite 822
-West Michaelside, PA 59787</t>
+          <t>13746 Brett Coves Suite 945
+Jeffreybury, OH 09096</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>dconley@example.org</t>
+          <t>maria95@example.com</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>957-388-7343x1227</t>
+          <t>+1-383-885-5362</t>
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>45462.29667824074</v>
+        <v>45508.058125</v>
       </c>
       <c r="G70" t="n">
-        <v>9491</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="71">
@@ -2688,30 +2688,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Joe Lang</t>
+          <t>Andrea Sanchez</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>80024 Marcus Trail Apt. 794
-Curtisland, MI 87712</t>
+          <t>78850 Douglas Alley
+Leeborough, IL 25109</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>katherinepotts@example.net</t>
+          <t>valdezdouglas@example.com</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>001-457-875-6676x220</t>
+          <t>(310)480-5703</t>
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>45332.28990740741</v>
+        <v>45261.14128472222</v>
       </c>
       <c r="G71" t="n">
-        <v>9613</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="72">
@@ -2720,30 +2720,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Elizabeth Mitchell</t>
+          <t>Danielle Bishop</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>9130 Holmes Island
-Michaelstad, CT 09914</t>
+          <t>427 Perez Ridges Suite 982
+Davidburgh, PR 60300</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>tina13@example.org</t>
+          <t>julie56@example.com</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>(831)761-0928x651</t>
+          <t>+1-912-848-2334x8586</t>
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>45107.164375</v>
+        <v>45650.30597222222</v>
       </c>
       <c r="G72" t="n">
-        <v>4289</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="73">
@@ -2752,30 +2752,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Gabriel Wilson</t>
+          <t>Rita Mann</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Unit 1369 Box 2859
-DPO AA 93930</t>
+          <t>Unit 9062 Box 7393
+DPO AA 33714</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>erica75@example.org</t>
+          <t>ecook@example.net</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>472-249-1195</t>
+          <t>201-318-3991x8894</t>
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>45224.76248842593</v>
+        <v>45512.42328703704</v>
       </c>
       <c r="G73" t="n">
-        <v>3928</v>
+        <v>8546</v>
       </c>
     </row>
     <row r="74">
@@ -2784,30 +2784,30 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ray Cantrell</t>
+          <t>Gary Floyd</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>64076 Kelly Street Suite 639
-Fosterhaven, TX 43290</t>
+          <t>98044 Alejandro Loaf Apt. 403
+Lake Michael, AL 89554</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>gallen@example.org</t>
+          <t>amorgan@example.com</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>001-246-786-1779x04401</t>
+          <t>(337)798-6937x652</t>
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45252.44800925926</v>
+        <v>45580.16767361111</v>
       </c>
       <c r="G74" t="n">
-        <v>9956</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="75">
@@ -2816,30 +2816,30 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Emily May DDS</t>
+          <t>Brian Martinez</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>57559 Conner Isle
-Cooperview, MA 17255</t>
+          <t>912 Derek Station
+West Jeffrey, VT 82641</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>kennethsmith@example.net</t>
+          <t>matthewsstephen@example.com</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>626-635-0602</t>
+          <t>949.236.7394x8614</t>
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45027.73224537037</v>
+        <v>45550.55719907407</v>
       </c>
       <c r="G75" t="n">
-        <v>7094</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="76">
@@ -2848,30 +2848,30 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ronald Cuevas</t>
+          <t>Jessica Lane</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>43211 Jackson Mews
-South Victoriabury, NY 91958</t>
+          <t>25309 Reyes Brook Suite 961
+Ianhaven, FM 18702</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vkeller@example.net</t>
+          <t>michelle99@example.net</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6704286122</t>
+          <t>685.690.2750x88176</t>
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>45452.90083333333</v>
+        <v>45520.06285879629</v>
       </c>
       <c r="G76" t="n">
-        <v>2012</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="77">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kelly Andrews</t>
+          <t>Derek Peterson</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>604 Ferguson Pike Suite 300
-Cunninghamhaven, IL 71750</t>
+          <t>7519 Cox Spurs
+West Dean, ID 21782</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>erika93@example.org</t>
+          <t>vconner@example.net</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>9602643659</t>
+          <t>299-357-1655x492</t>
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>45189.97457175926</v>
+        <v>45604.03576388889</v>
       </c>
       <c r="G77" t="n">
-        <v>9980</v>
+        <v>8890</v>
       </c>
     </row>
     <row r="78">
@@ -2912,30 +2912,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Carol Nelson</t>
+          <t>Ann Griffin</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>44958 Amber Street
-Lake Stephen, CO 09000</t>
+          <t>7038 Joseph View
+South Crystal, TX 37612</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>wbrown@example.net</t>
+          <t>johnny77@example.com</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>(956)933-1611</t>
+          <t>703-736-2726x663</t>
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>45022.705625</v>
+        <v>45199.38596064815</v>
       </c>
       <c r="G78" t="n">
-        <v>1957</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="79">
@@ -2944,30 +2944,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Keith Smith</t>
+          <t>Benjamin Dougherty</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4206 Williams Forge Suite 584
-New Christopherfort, WV 53948</t>
+          <t>77262 Robinson Turnpike
+Zacharyville, AS 39791</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>christophermcclure@example.net</t>
+          <t>richardsonjustin@example.com</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>837.678.6270</t>
+          <t>813.938.8263</t>
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>45329.76652777778</v>
+        <v>45626.80950231481</v>
       </c>
       <c r="G79" t="n">
-        <v>8477</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="80">
@@ -2976,30 +2976,30 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Chad Bishop</t>
+          <t>Teresa Walker</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>159 Marshall Island Apt. 364
-Trevorville, ND 65319</t>
+          <t>5023 James Springs
+Lisaton, LA 52281</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>jamesalvarez@example.org</t>
+          <t>natashasherman@example.com</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>+1-865-369-4113x55162</t>
+          <t>642-881-4924x82163</t>
         </is>
       </c>
       <c r="F80" s="2" t="n">
-        <v>45351.65215277778</v>
+        <v>45385.37641203704</v>
       </c>
       <c r="G80" t="n">
-        <v>9142</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="81">
@@ -3008,30 +3008,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Samantha Soto</t>
+          <t>Faith Wells</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>585 Cassandra Islands
-Davisburgh, NV 30395</t>
+          <t>USNV Jackson
+FPO AE 29960</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>spencer40@example.net</t>
+          <t>kennedyjonathan@example.com</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>+1-736-529-1357</t>
+          <t>912.218.3875x64062</t>
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44971.57333333333</v>
+        <v>45536.29495370371</v>
       </c>
       <c r="G81" t="n">
-        <v>5078</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="82">
@@ -3040,30 +3040,30 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Joseph Chen</t>
+          <t>Christopher Gilbert</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>807 Romero Village
-Liumouth, AS 07677</t>
+          <t>2977 Jill Tunnel
+Port Betty, KY 82744</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>carrollsandra@example.net</t>
+          <t>david53@example.org</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>666.825.4351x26624</t>
+          <t>262.852.7711x209</t>
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>45598.52633101852</v>
+        <v>45452.00405092593</v>
       </c>
       <c r="G82" t="n">
-        <v>6560</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="83">
@@ -3072,30 +3072,30 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Jeffrey Sanchez</t>
+          <t>Ashley Herrera</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>776 Guzman Stream Suite 167
-West Michael, NV 75232</t>
+          <t>0187 Jeffrey Flat
+Jenniferborough, WI 80293</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>laurenjackson@example.com</t>
+          <t>gonzalezjustin@example.org</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>(428)532-1448x253</t>
+          <t>+1-953-692-4277</t>
         </is>
       </c>
       <c r="F83" s="2" t="n">
-        <v>45335.41819444444</v>
+        <v>45205.21809027778</v>
       </c>
       <c r="G83" t="n">
-        <v>1407</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="84">
@@ -3104,30 +3104,30 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Christopher Rodriguez</t>
+          <t>Isaac Fox</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>09788 Scott Island Apt. 230
-Mooreland, VI 04271</t>
+          <t>933 Phillips Club
+North Austin, SD 43477</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>hperez@example.com</t>
+          <t>tammyortiz@example.com</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>442-378-6300</t>
+          <t>(674)408-6586x248</t>
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>45215.18469907407</v>
+        <v>45171.28005787037</v>
       </c>
       <c r="G84" t="n">
-        <v>8415</v>
+        <v>8518</v>
       </c>
     </row>
     <row r="85">
@@ -3136,30 +3136,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Charles Nguyen</t>
+          <t>Pam Cox</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>93563 Linda Ways
-Jenkinsport, OR 75033</t>
+          <t>407 Paula Springs
+North Amandaburgh, MP 95853</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>annaturner@example.org</t>
+          <t>kimberly41@example.net</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>(870)251-9492x43420</t>
+          <t>318-635-8065x99999</t>
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>45135.4465162037</v>
+        <v>45303.28414351852</v>
       </c>
       <c r="G85" t="n">
-        <v>5380</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="86">
@@ -3168,30 +3168,30 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Julie Brooks</t>
+          <t>Ashley Preston</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>USNS Daniels
-FPO AE 50262</t>
+          <t>7537 Joe Burgs Apt. 711
+Pruittshire, MD 38768</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>jay24@example.org</t>
+          <t>kellyheather@example.org</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>725-712-8535x07465</t>
+          <t>874.364.2482x7085</t>
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44962.42302083333</v>
+        <v>45624.803125</v>
       </c>
       <c r="G86" t="n">
-        <v>7093</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="87">
@@ -3200,30 +3200,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Karen Ewing</t>
+          <t>Marissa Gonzalez</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5942 Samantha Radial Suite 080
-East Zacharyport, IA 18293</t>
+          <t>USCGC Haynes
+FPO AP 20178</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>pkline@example.org</t>
+          <t>smithrussell@example.org</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>(403)766-8232x94232</t>
+          <t>797.909.8679</t>
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>45628.26304398148</v>
+        <v>45633.19130787037</v>
       </c>
       <c r="G87" t="n">
-        <v>1003</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="88">
@@ -3232,30 +3232,30 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Linda Mcintosh</t>
+          <t>Stephanie Pena</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3495 Thomas Squares
-Lamland, DC 34095</t>
+          <t>3378 Knight Ferry
+East Joemouth, MN 13066</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>coxdaryl@example.com</t>
+          <t>nthornton@example.com</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>709-830-2351</t>
+          <t>+1-457-822-7938</t>
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>45158.28311342592</v>
+        <v>45547.96651620371</v>
       </c>
       <c r="G88" t="n">
-        <v>1877</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="89">
@@ -3264,30 +3264,30 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Marcus Howard</t>
+          <t>Mia Boone</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PSC 9386, Box 7870
-APO AP 15662</t>
+          <t>Unit 3218 Box 3166
+DPO AA 99053</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>bonnieross@example.org</t>
+          <t>woodpaul@example.com</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>497-897-8710x05570</t>
+          <t>+1-709-791-1407x30016</t>
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>45268.5578125</v>
+        <v>45020.954375</v>
       </c>
       <c r="G89" t="n">
-        <v>9339</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="90">
@@ -3296,30 +3296,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Wesley Diaz</t>
+          <t>Katherine Aguilar</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>USS Torres
-FPO AE 29009</t>
+          <t>3139 Bell Mews
+North Aaron, WA 72963</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>lewisashley@example.org</t>
+          <t>michaelkirby@example.net</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5569653526</t>
+          <t>(240)471-7874x8629</t>
         </is>
       </c>
       <c r="F90" s="2" t="n">
-        <v>45265.29018518519</v>
+        <v>45142.99328703704</v>
       </c>
       <c r="G90" t="n">
-        <v>8469</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="91">
@@ -3328,30 +3328,30 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Catherine Pena</t>
+          <t>Charles Copeland</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>56797 Bauer Tunnel Apt. 063
-North Holly, CO 29562</t>
+          <t>6355 Beltran Park Suite 598
+Alanstad, DC 03667</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>james76@example.net</t>
+          <t>zstevenson@example.org</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>001-428-612-6629x9279</t>
+          <t>001-867-713-8417</t>
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>45640.5185300926</v>
+        <v>45433.86157407407</v>
       </c>
       <c r="G91" t="n">
-        <v>4789</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="92">
@@ -3360,30 +3360,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Daniel Johnson</t>
+          <t>Joel Rodriguez</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>6967 Chad Inlet Suite 168
-Mcknightburgh, CT 63916</t>
+          <t>75948 Frederick Springs Apt. 241
+Perezmouth, MI 61300</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>josecooke@example.org</t>
+          <t>sarahnelson@example.net</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>9158101589</t>
+          <t>001-848-635-9757</t>
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>45362.11414351852</v>
+        <v>45362.92128472222</v>
       </c>
       <c r="G92" t="n">
-        <v>1195</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="93">
@@ -3392,30 +3392,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Natasha Warren</t>
+          <t>Brandon Thomas</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>98967 Hayes Street Apt. 319
-Garcialand, DE 06616</t>
+          <t>555 Taylor Station
+Swansonshire, PA 21153</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>lmartin@example.org</t>
+          <t>millseric@example.com</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>001-924-625-9385x331</t>
+          <t>203-581-8417x77044</t>
         </is>
       </c>
       <c r="F93" s="2" t="n">
-        <v>45400.85863425926</v>
+        <v>45083.45938657408</v>
       </c>
       <c r="G93" t="n">
-        <v>9353</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="94">
@@ -3424,30 +3424,30 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cindy Lopez</t>
+          <t>Brandon Pennington</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PSC 5719, Box 6816
-APO AA 87187</t>
+          <t>037 Sharon Point Suite 488
+Cynthiaton, TN 60894</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>whitemichael@example.net</t>
+          <t>jlong@example.org</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>001-599-822-2993x64651</t>
+          <t>(219)784-8595</t>
         </is>
       </c>
       <c r="F94" s="2" t="n">
-        <v>45113.47125</v>
+        <v>45454.14037037037</v>
       </c>
       <c r="G94" t="n">
-        <v>6112</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="95">
@@ -3456,30 +3456,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>William Edwards PhD</t>
+          <t>April Keller</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>994 Maria Isle Suite 118
-North Melissaberg, ME 62343</t>
+          <t>9959 Mullins Mission
+Lake Sandra, MS 65144</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>timothywilson@example.net</t>
+          <t>brendairwin@example.com</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>448.236.5622x329</t>
+          <t>001-421-786-9118</t>
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>45151.75484953704</v>
+        <v>45088.58071759259</v>
       </c>
       <c r="G95" t="n">
-        <v>4380</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="96">
@@ -3488,30 +3488,30 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Julie Burke</t>
+          <t>Steve Berry</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>466 Garcia Flat
-South Larryshire, ME 10393</t>
+          <t>66080 Hansen Summit Suite 951
+North Alicia, MH 76362</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>jessicaperry@example.net</t>
+          <t>justinblack@example.net</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5693064886</t>
+          <t>+1-399-859-8922</t>
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>45469.38594907407</v>
+        <v>45023.21787037037</v>
       </c>
       <c r="G96" t="n">
-        <v>1234</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="97">
@@ -3520,30 +3520,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Aaron Martin</t>
+          <t>Mary Wilson</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0734 Oconnor Street Suite 785
-East Tammyton, AK 15996</t>
+          <t>895 Lawrence Parks Suite 830
+North Anthony, WA 71048</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>mccoycody@example.com</t>
+          <t>fthompson@example.net</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>001-620-573-3622</t>
+          <t>(632)888-5532</t>
         </is>
       </c>
       <c r="F97" s="2" t="n">
-        <v>45550.01009259259</v>
+        <v>44940.36697916667</v>
       </c>
       <c r="G97" t="n">
-        <v>2789</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="98">
@@ -3552,30 +3552,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Rachel Brooks</t>
+          <t>James Martin</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Unit 1246 Box 8540
-DPO AA 45512</t>
+          <t>USNV Woods
+FPO AE 02911</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>trevorgreen@example.com</t>
+          <t>vortega@example.org</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>001-595-262-5613</t>
+          <t>244-234-5880</t>
         </is>
       </c>
       <c r="F98" s="2" t="n">
-        <v>45143.50423611111</v>
+        <v>45062.99005787037</v>
       </c>
       <c r="G98" t="n">
-        <v>6476</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="99">
@@ -3584,30 +3584,30 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jason Washington</t>
+          <t>Beth Simpson</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>9875 Klein Villages
-Williamsfurt, FM 52998</t>
+          <t>9606 Danny Grove Suite 179
+East Samuel, FL 71042</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>brian01@example.com</t>
+          <t>zwilliams@example.org</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>001-436-216-5883x29836</t>
+          <t>867-278-7867</t>
         </is>
       </c>
       <c r="F99" s="2" t="n">
-        <v>45143.70436342592</v>
+        <v>44991.91560185186</v>
       </c>
       <c r="G99" t="n">
-        <v>8108</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="100">
@@ -3616,30 +3616,30 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Connie Matthews</t>
+          <t>Kenneth Cardenas</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Unit 1074 Box 0321
-DPO AA 55266</t>
+          <t>8727 Frye Turnpike
+Port Bonnietown, AR 04414</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>salinaspaul@example.com</t>
+          <t>taylorevans@example.net</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>001-404-394-6418x690</t>
+          <t>(493)736-1793x7747</t>
         </is>
       </c>
       <c r="F100" s="2" t="n">
-        <v>45503.72260416667</v>
+        <v>44990.98165509259</v>
       </c>
       <c r="G100" t="n">
-        <v>9350</v>
+        <v>9957</v>
       </c>
     </row>
     <row r="101">
@@ -3648,30 +3648,30 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jennifer Jacobs</t>
+          <t>Jessica Wolf</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>7156 Gallegos Rue
-Deanmouth, IN 50676</t>
+          <t>Unit 4353 Box 3414
+DPO AE 21699</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>april75@example.org</t>
+          <t>karenbrandt@example.com</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>741-441-2944</t>
+          <t>(356)747-9391x418</t>
         </is>
       </c>
       <c r="F101" s="2" t="n">
-        <v>45293.98519675926</v>
+        <v>45010.14238425926</v>
       </c>
       <c r="G101" t="n">
-        <v>1496</v>
+        <v>5649</v>
       </c>
     </row>
   </sheetData>

--- a/explorepy/Datasets/excel_practice.xlsx
+++ b/explorepy/Datasets/excel_practice.xlsx
@@ -480,30 +480,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Julie Price</t>
+          <t>Cody Torres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1359 Lee Overpass
-Williamsberg, MP 20354</t>
+          <t>PSC 3948, Box 1894
+APO AA 40838</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>thomasnicholas@example.com</t>
+          <t>timothycosta@example.net</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>001-461-520-1522x488</t>
+          <t>9587158023</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45216.27978009259</v>
+        <v>45503.75555555556</v>
       </c>
       <c r="G2" t="n">
-        <v>3025</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="3">
@@ -512,30 +512,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christian Walker</t>
+          <t>Hunter Obrien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>182 Lauren Plain
-East Pamela, DE 58767</t>
+          <t>7938 David Locks Apt. 247
+Ericfurt, ND 08773</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>qmarks@example.net</t>
+          <t>castilloperry@example.org</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>679.880.8525x2375</t>
+          <t>303-680-2902x153</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45219.18180555556</v>
+        <v>45281.22960648148</v>
       </c>
       <c r="G3" t="n">
-        <v>3754</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="4">
@@ -544,30 +544,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Julie White</t>
+          <t>Joseph Obrien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>315 Chloe Ville
-Feliciaview, MH 66413</t>
+          <t>03927 Brennan Station Apt. 038
+South Bradley, NC 32803</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mitchell92@example.net</t>
+          <t>phillip32@example.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(934)457-5055</t>
+          <t>3208401171</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094.76732638889</v>
+        <v>45122.59137731481</v>
       </c>
       <c r="G4" t="n">
-        <v>7072</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="5">
@@ -576,30 +576,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mark Villanueva</t>
+          <t>Bryan Taylor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9549 Holland Rest
-New Jamie, ME 01884</t>
+          <t>5752 Joseph Skyway
+South Johnberg, HI 65160</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>robin29@example.net</t>
+          <t>thompsonerik@example.org</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>567-644-0746</t>
+          <t>818.609.4230x96915</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45412.97756944445</v>
+        <v>45017.73284722222</v>
       </c>
       <c r="G5" t="n">
-        <v>6555</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="6">
@@ -608,30 +608,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Troy Moore</t>
+          <t>Ruth Baxter</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>024 Olson Street Apt. 652
-Port Mark, WA 29447</t>
+          <t>3089 Duffy Field
+Wallaceville, NM 33915</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>bradleykathleen@example.net</t>
+          <t>victor93@example.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5216825990</t>
+          <t>+1-369-683-3975x858</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45262.05946759259</v>
+        <v>45475.56299768519</v>
       </c>
       <c r="G6" t="n">
-        <v>8937</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="7">
@@ -640,30 +640,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stacy Petty</t>
+          <t>Harold Lawrence Jr.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>98737 Kelly Glen Apt. 351
-Gonzalezhaven, IN 45862</t>
+          <t>70232 Mckinney Track
+South Jenniferstad, NY 18170</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>taylordarren@example.net</t>
+          <t>reidtracie@example.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>263-211-0317x53989</t>
+          <t>+1-549-465-4447</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45019.42112268518</v>
+        <v>44946.12981481481</v>
       </c>
       <c r="G7" t="n">
-        <v>4613</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="8">
@@ -672,30 +672,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Elizabeth Sutton</t>
+          <t>Heather Mercer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Unit 1131 Box 8711
-DPO AP 52752</t>
+          <t>549 Patel Drive
+Johnsonhaven, MN 67827</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>lhudson@example.net</t>
+          <t>brownwhitney@example.org</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>801.697.6814x714</t>
+          <t>795-401-8945x190</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45201.43753472222</v>
+        <v>45538.02158564814</v>
       </c>
       <c r="G8" t="n">
-        <v>8251</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="9">
@@ -704,30 +704,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mrs. Kimberly Price</t>
+          <t>Jessica Bradley</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09758 Andrew Centers Apt. 579
-Websterbury, WY 09413</t>
+          <t>978 Andrea Cove Suite 050
+West Patrick, MO 12732</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ericacervantes@example.com</t>
+          <t>nguyencraig@example.org</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>519.277.9411</t>
+          <t>322-240-7145x85962</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44952.05420138889</v>
+        <v>45534.09546296296</v>
       </c>
       <c r="G9" t="n">
-        <v>6478</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="10">
@@ -736,30 +736,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Melissa Scott</t>
+          <t>Kimberly Mcdaniel</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>446 Sylvia Pines Suite 307
-South Ryanmouth, SD 38902</t>
+          <t>6506 Kane Neck Apt. 698
+West Jenniferland, SD 66937</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>shaffertom@example.com</t>
+          <t>thomas93@example.net</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(922)627-9117x81169</t>
+          <t>304.361.9887</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45526.78196759259</v>
+        <v>45321.12045138889</v>
       </c>
       <c r="G10" t="n">
-        <v>1418</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="11">
@@ -768,30 +768,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Hernandez</t>
+          <t>Douglas Hall</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>121 Rodney Village
-East Tanya, NJ 09579</t>
+          <t>3830 Steven Vista Apt. 631
+Woodschester, ND 41569</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>paulawhite@example.org</t>
+          <t>michaelcook@example.org</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(251)409-9924x916</t>
+          <t>(448)275-5108x87296</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45560.02731481481</v>
+        <v>45641.83935185185</v>
       </c>
       <c r="G11" t="n">
-        <v>1912</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="12">
@@ -800,30 +800,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sophia Wilson</t>
+          <t>William Perez</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4674 Sarah Fall
-North Brianfurt, TN 93743</t>
+          <t>64568 James Hills Apt. 464
+North Mark, ME 79910</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>robinpollard@example.org</t>
+          <t>jbarron@example.net</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>339.864.3575</t>
+          <t>696.528.1563</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45015.50761574074</v>
+        <v>45619.55303240741</v>
       </c>
       <c r="G12" t="n">
-        <v>2237</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="13">
@@ -832,30 +832,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Luke Rowland</t>
+          <t>Adrian Hudson</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30880 Davis Tunnel
-West Anthony, TN 27576</t>
+          <t>7333 Hodges Islands
+New Ryanmouth, NE 82591</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>jeffreytodd@example.org</t>
+          <t>shannonkimberly@example.net</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(500)386-3647</t>
+          <t>958.229.8281</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44963.79641203704</v>
+        <v>44993.32650462963</v>
       </c>
       <c r="G13" t="n">
-        <v>8412</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="14">
@@ -864,30 +864,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Debra Hall</t>
+          <t>Shane Lopez</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07006 Paul Curve
-South Kristinhaven, VT 89407</t>
+          <t>USCGC Bauer
+FPO AE 22298</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>wayne00@example.org</t>
+          <t>nicholsbradley@example.net</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>429-298-8318</t>
+          <t>801.471.0150x8270</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45334.40075231482</v>
+        <v>45534.15172453703</v>
       </c>
       <c r="G14" t="n">
-        <v>2954</v>
+        <v>9316</v>
       </c>
     </row>
     <row r="15">
@@ -896,30 +896,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lisa Bailey</t>
+          <t>Linda Gutierrez</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>55876 Bryant Crest Apt. 626
-Castanedaland, AL 08039</t>
+          <t>8305 George Glens
+Wallacestad, AZ 64589</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>greggadams@example.org</t>
+          <t>xdavis@example.org</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>+1-264-926-9572x07144</t>
+          <t>+1-420-672-7638</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45097.48549768519</v>
+        <v>45280.65167824074</v>
       </c>
       <c r="G15" t="n">
-        <v>9166</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="16">
@@ -928,30 +928,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Austin Harvey</t>
+          <t>Michele Pearson</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>82672 Nicole Fords Apt. 636
-New Andrew, DE 01219</t>
+          <t>Unit 2334 Box 2371
+DPO AP 45727</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>fturner@example.org</t>
+          <t>tylercarolyn@example.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>593-243-1993</t>
+          <t>3085333578</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45594.5590162037</v>
+        <v>45222.96313657407</v>
       </c>
       <c r="G16" t="n">
-        <v>5374</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="17">
@@ -960,30 +960,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amber Lee</t>
+          <t>Amy Becker</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>USNS Russell
-FPO AA 01075</t>
+          <t>818 Lee Brooks
+Lake Jennifer, AL 25065</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>katieherrera@example.net</t>
+          <t>kathy38@example.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>781-716-7922</t>
+          <t>9598965288</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45597.02601851852</v>
+        <v>45104.66646990741</v>
       </c>
       <c r="G17" t="n">
-        <v>4551</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="18">
@@ -992,30 +992,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Justin Sutton</t>
+          <t>John Warren</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>942 Reed Loaf Suite 403
-West Sean, SC 67639</t>
+          <t>5403 Amanda Circle Suite 398
+North Michaelburgh, KY 09209</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joeburch@example.com</t>
+          <t>jennifer09@example.net</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>+1-466-706-7071</t>
+          <t>+1-305-292-3152x5805</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45128.06552083333</v>
+        <v>45192.29199074074</v>
       </c>
       <c r="G18" t="n">
-        <v>6754</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="19">
@@ -1024,30 +1024,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>April Medina</t>
+          <t>Taylor Rojas MD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>00451 Marshall Mall
-West Cody, MA 64719</t>
+          <t>Unit 0862 Box 1457
+DPO AE 39146</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>dixonryan@example.com</t>
+          <t>rfoley@example.net</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>462-606-8588x99618</t>
+          <t>(718)465-3405x740</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45048.03825231481</v>
+        <v>45043.81766203704</v>
       </c>
       <c r="G19" t="n">
-        <v>2779</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="20">
@@ -1056,30 +1056,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mr. Jonathan Carlson MD</t>
+          <t>Thomas Moore</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>575 Fletcher Lane
-West John, MH 40188</t>
+          <t>105 John Green
+North Stuart, AL 53991</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vsmith@example.net</t>
+          <t>pmorales@example.net</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>619-298-6811x900</t>
+          <t>681.737.9092</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45517.09591435185</v>
+        <v>45221.83842592593</v>
       </c>
       <c r="G20" t="n">
-        <v>1912</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="21">
@@ -1088,30 +1088,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Barbara Walker</t>
+          <t>William Jones</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20451 Clay Ports Suite 835
-Port Dominicport, ME 13808</t>
+          <t>4116 Johnson Cove Suite 705
+Timothyberg, NM 54388</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>amberpierce@example.net</t>
+          <t>wendydouglas@example.org</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>913-750-0628x52309</t>
+          <t>640-841-4651</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45501.00409722222</v>
+        <v>45429.95759259259</v>
       </c>
       <c r="G21" t="n">
-        <v>9331</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="22">
@@ -1120,30 +1120,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jennifer Hernandez</t>
+          <t>Craig Miles</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>518 Matthew Forges
-Patrickstad, WA 78366</t>
+          <t>82076 Lopez Keys
+Karenport, MT 08555</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>sanchezdaniel@example.org</t>
+          <t>jenniferkoch@example.net</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(297)891-9263</t>
+          <t>412-232-6329x346</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45438.66549768519</v>
+        <v>45617.42439814815</v>
       </c>
       <c r="G22" t="n">
-        <v>2422</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="23">
@@ -1152,30 +1152,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dan Smith</t>
+          <t>Monica Porter</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0394 Jennifer Track
-East Jeffreyfurt, NJ 77250</t>
+          <t>USNS Baker
+FPO AP 37164</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>jennifer29@example.net</t>
+          <t>stephensterrence@example.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>001-296-378-7091x836</t>
+          <t>306-348-7169x913</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45591.55765046296</v>
+        <v>45252.35940972222</v>
       </c>
       <c r="G23" t="n">
-        <v>5638</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="24">
@@ -1184,30 +1184,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mrs. Kathryn Hughes</t>
+          <t>Courtney Freeman</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9075 Johnson Village Apt. 970
-Evansburgh, TN 18106</t>
+          <t>10869 Denise Knoll
+Coryville, NJ 86503</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>theresashaw@example.net</t>
+          <t>trevor26@example.net</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>323-250-7295</t>
+          <t>+1-879-436-7329</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45533.86979166666</v>
+        <v>45240.52402777778</v>
       </c>
       <c r="G24" t="n">
-        <v>4290</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="25">
@@ -1216,30 +1216,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Madison Herrera</t>
+          <t>Brandon Floyd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>081 Victor Fords Apt. 640
-Ruizfurt, CA 66970</t>
+          <t>PSC 9273, Box 8564
+APO AE 14057</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>julian99@example.org</t>
+          <t>ihall@example.com</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+1-508-931-6546x8491</t>
+          <t>(633)689-1617x1013</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45350.43387731481</v>
+        <v>45038.58028935185</v>
       </c>
       <c r="G25" t="n">
-        <v>4670</v>
+        <v>9335</v>
       </c>
     </row>
     <row r="26">
@@ -1248,30 +1248,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amanda Glenn</t>
+          <t>Charles Trujillo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>839 Murphy Turnpike Apt. 639
-Lake Christopherville, KY 79664</t>
+          <t>83485 Diane Ranch
+Lake Michaelstad, SC 67667</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>gonzalesthomas@example.org</t>
+          <t>julie39@example.net</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>275-531-0176x488</t>
+          <t>001-778-751-3219x88965</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45122.58956018519</v>
+        <v>45076.79109953704</v>
       </c>
       <c r="G26" t="n">
-        <v>6186</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="27">
@@ -1280,30 +1280,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Brett Duffy</t>
+          <t>Gregory Guzman</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>033 Sherman Corner
-Lake Justinburgh, WV 57849</t>
+          <t>4501 Vazquez Cove
+Wilsonbury, KS 77317</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>tmartinez@example.org</t>
+          <t>nterry@example.net</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5997067921</t>
+          <t>001-913-538-3449x2185</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45504.53653935185</v>
+        <v>45418.42776620371</v>
       </c>
       <c r="G27" t="n">
-        <v>2336</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="28">
@@ -1312,30 +1312,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Linda Reed</t>
+          <t>Cynthia Webb</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0504 Heather Summit
-East Antoniotown, GA 41903</t>
+          <t>325 Atkins Street Apt. 028
+Lake Julieburgh, IN 58577</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>campbellpeter@example.com</t>
+          <t>christine09@example.org</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>471-226-5283x7410</t>
+          <t>+1-620-909-2057x7718</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45275.06648148148</v>
+        <v>45358.94903935185</v>
       </c>
       <c r="G28" t="n">
-        <v>6602</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="29">
@@ -1344,30 +1344,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Katherine Phelps</t>
+          <t>Jodi Martin</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>USNV Clark
-FPO AP 46313</t>
+          <t>4229 Susan Track
+West Thomasport, NH 17999</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vangjessica@example.net</t>
+          <t>jennifercross@example.com</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>001-208-738-1620</t>
+          <t>865-618-2951x234</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45188.47715277778</v>
+        <v>45035.0815162037</v>
       </c>
       <c r="G29" t="n">
-        <v>8809</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="30">
@@ -1376,30 +1376,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Stephanie Bennett</t>
+          <t>Alison Solis</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2571 Griffin Turnpike Apt. 980
-Carterville, DC 72780</t>
+          <t>668 Taylor Rapid
+North Andrew, HI 62961</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>kim32@example.org</t>
+          <t>cbarnes@example.org</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>+1-834-872-4214x5792</t>
+          <t>575.997.9186</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45091.21708333334</v>
+        <v>45104.07555555556</v>
       </c>
       <c r="G30" t="n">
-        <v>2941</v>
+        <v>5945</v>
       </c>
     </row>
     <row r="31">
@@ -1408,30 +1408,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Matthew Jacobson</t>
+          <t>Eric Erickson</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>573 Kimberly Isle Apt. 632
-Tuckerfurt, IA 96563</t>
+          <t>1061 Crane Trace
+Blairview, NH 86826</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>briannaholloway@example.org</t>
+          <t>olivia57@example.net</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>001-999-761-7065x2915</t>
+          <t>548-430-8406x2325</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45072.77471064815</v>
+        <v>44954.96003472222</v>
       </c>
       <c r="G31" t="n">
-        <v>6593</v>
+        <v>9424</v>
       </c>
     </row>
     <row r="32">
@@ -1440,30 +1440,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Marie Stephens</t>
+          <t>Jennifer Myers</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0810 Campbell Harbors Apt. 240
-North Larry, ME 90269</t>
+          <t>49160 Reynolds Squares
+Port Jeremy, UT 62761</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vlawson@example.net</t>
+          <t>rriley@example.org</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4732455312</t>
+          <t>3948251038</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45089.78125</v>
+        <v>45374.40347222222</v>
       </c>
       <c r="G32" t="n">
-        <v>2523</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="33">
@@ -1472,30 +1472,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Grace Roberts</t>
+          <t>John Hill</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>490 Erica Wells Apt. 624
-West Williamstad, MA 79068</t>
+          <t>Unit 7151 Box 1654
+DPO AP 59339</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>waynejennings@example.org</t>
+          <t>kanderson@example.org</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>671-540-1217</t>
+          <t>(358)912-3961</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45094.36711805555</v>
+        <v>45641.89966435185</v>
       </c>
       <c r="G33" t="n">
-        <v>2021</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="34">
@@ -1504,30 +1504,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tara Mcgee</t>
+          <t>Mark Goodwin</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>613 Edward Burgs Suite 261
-Crossside, FL 11013</t>
+          <t>USNV Hall
+FPO AA 31185</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>deborahnelson@example.net</t>
+          <t>mbowen@example.net</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>001-841-677-1775x93166</t>
+          <t>652-376-6764</t>
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44996.41296296296</v>
+        <v>44980.91209490741</v>
       </c>
       <c r="G34" t="n">
-        <v>4080</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="35">
@@ -1536,30 +1536,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Brenda Nguyen</t>
+          <t>Brandon Hayes</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>778 Macdonald Lights Suite 654
-Lake George, KS 38731</t>
+          <t>158 Mitchell Estate
+Robertborough, AZ 46601</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>kayla13@example.org</t>
+          <t>amanda88@example.org</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>671-483-4379x312</t>
+          <t>001-592-595-6119x23592</t>
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45452.24211805555</v>
+        <v>45271.17961805555</v>
       </c>
       <c r="G35" t="n">
-        <v>8636</v>
+        <v>9585</v>
       </c>
     </row>
     <row r="36">
@@ -1568,30 +1568,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Courtney Weiss</t>
+          <t>Krista Smith</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6786 Wyatt Course Suite 104
-Port Kevin, WI 23817</t>
+          <t>USNS Flores
+FPO AE 18028</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vschultz@example.org</t>
+          <t>josedavid@example.com</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>243-868-0746x103</t>
+          <t>285-404-0100</t>
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45119.7277662037</v>
+        <v>45548.03383101852</v>
       </c>
       <c r="G36" t="n">
-        <v>3604</v>
+        <v>7156</v>
       </c>
     </row>
     <row r="37">
@@ -1600,30 +1600,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Christopher Hayden</t>
+          <t>Mary Sanders</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PSC 2786, Box 0159
-APO AA 51737</t>
+          <t>990 Greene Lake Suite 860
+Rhodeschester, AK 27298</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>lmitchell@example.com</t>
+          <t>ntorres@example.com</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>336.931.6127x35021</t>
+          <t>+1-797-650-7414x92391</t>
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45507.97194444444</v>
+        <v>45057.03958333333</v>
       </c>
       <c r="G37" t="n">
-        <v>2515</v>
+        <v>8975</v>
       </c>
     </row>
     <row r="38">
@@ -1632,30 +1632,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kari Lam</t>
+          <t>Mario Dawson</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>22969 Estrada Tunnel Suite 570
-Rileymouth, HI 75918</t>
+          <t>540 Hampton Parkways Apt. 245
+North Alejandro, MT 48536</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>lorihunt@example.org</t>
+          <t>cowanolivia@example.com</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>+1-519-637-0304x032</t>
+          <t>261-579-7180x72228</t>
         </is>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45348.89103009259</v>
+        <v>45456.86732638889</v>
       </c>
       <c r="G38" t="n">
-        <v>4626</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="39">
@@ -1664,30 +1664,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Christopher Perry</t>
+          <t>Stephen Alexander</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>24236 Stone Turnpike
-South Hannah, RI 07965</t>
+          <t>9417 Rogers Corner Apt. 959
+New Richard, MT 01000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>markgonzalez@example.org</t>
+          <t>megan59@example.net</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>370.906.1374x0252</t>
+          <t>001-748-892-5944</t>
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45443.65517361111</v>
+        <v>45439.08686342592</v>
       </c>
       <c r="G39" t="n">
-        <v>8732</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="40">
@@ -1696,30 +1696,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mr. Gary Solis</t>
+          <t>Kevin Thompson</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Unit 7998 Box 5426
-DPO AP 15092</t>
+          <t>18153 Calvin Locks Apt. 472
+Port Kimberlyville, GA 42358</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ryan17@example.org</t>
+          <t>fullerjessica@example.net</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7285400383</t>
+          <t>+1-573-492-4366x84894</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45365.5575462963</v>
+        <v>45544.08664351852</v>
       </c>
       <c r="G40" t="n">
-        <v>4508</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="41">
@@ -1728,30 +1728,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sergio Stuart</t>
+          <t>Michelle Hernandez</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>70975 Ramirez Tunnel Suite 201
-West Paul, VT 47282</t>
+          <t>190 David Courts Apt. 117
+Liuside, GU 03818</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>michaelward@example.com</t>
+          <t>lance54@example.com</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>463-944-2176</t>
+          <t>(413)867-1610</t>
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45217.2668287037</v>
+        <v>45467.43094907407</v>
       </c>
       <c r="G41" t="n">
-        <v>7786</v>
+        <v>9704</v>
       </c>
     </row>
     <row r="42">
@@ -1760,30 +1760,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Patrick Marquez</t>
+          <t>Andre Wise</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>380 Diaz Corner
-Griffinview, MI 04619</t>
+          <t>923 Jason Inlet
+Lake Valerie, ME 36235</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>wellsjonathan@example.net</t>
+          <t>erandolph@example.org</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>869.413.2735x619</t>
+          <t>001-661-730-6089x4977</t>
         </is>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45594.80836805556</v>
+        <v>45640.28957175926</v>
       </c>
       <c r="G42" t="n">
-        <v>9071</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="43">
@@ -1792,30 +1792,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Diane Erickson</t>
+          <t>Russell Stuart</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2634 Griffith Landing
-Derrickton, CT 99925</t>
+          <t>48654 Coleman Ranch
+East Deniseside, NE 11608</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>iklein@example.net</t>
+          <t>barryrivera@example.org</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>(304)643-8555</t>
+          <t>001-491-842-5515x92772</t>
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45079.33560185185</v>
+        <v>45478.26224537037</v>
       </c>
       <c r="G43" t="n">
-        <v>1519</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="44">
@@ -1824,30 +1824,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Shelby Kidd</t>
+          <t>Melissa Sharp</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Unit 0675 Box 6014
-DPO AP 16589</t>
+          <t>852 Robinson Well Suite 906
+South Joel, NE 04907</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>lindadavila@example.com</t>
+          <t>alexanderbrianna@example.org</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>391-285-3125</t>
+          <t>001-912-644-9538x65364</t>
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45510.87895833333</v>
+        <v>45507.84300925926</v>
       </c>
       <c r="G44" t="n">
-        <v>7266</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="45">
@@ -1856,30 +1856,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Andrea Bryant</t>
+          <t>Amanda Rice</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>70037 Sellers River
-West Ricardohaven, TX 72807</t>
+          <t>908 Sean Causeway
+Johnberg, TX 93244</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>whardy@example.net</t>
+          <t>lopezryan@example.org</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>825-358-0693</t>
+          <t>878-464-0482</t>
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44999.20357638889</v>
+        <v>45218.37506944445</v>
       </c>
       <c r="G45" t="n">
-        <v>2579</v>
+        <v>8758</v>
       </c>
     </row>
     <row r="46">
@@ -1888,30 +1888,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Megan Best</t>
+          <t>Christine Smith</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>6491 Fry Courts Apt. 429
-Lake Christopher, VT 34627</t>
+          <t>643 Cunningham Parkways Apt. 042
+New Kathleen, NJ 33082</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>edwardsamber@example.net</t>
+          <t>oscar00@example.com</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>290.444.2959x32836</t>
+          <t>369-501-6246</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45504.74271990741</v>
+        <v>44986.13408564815</v>
       </c>
       <c r="G46" t="n">
-        <v>2328</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="47">
@@ -1920,30 +1920,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Robert Bowen</t>
+          <t>Laura Molina</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0625 Steven Tunnel
-East Robert, HI 46373</t>
+          <t>741 David Motorway Suite 116
+Edwardport, CT 30030</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>jacquelinehill@example.org</t>
+          <t>schwartzkatherine@example.com</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>525.882.1216x8571</t>
+          <t>001-345-963-8880x533</t>
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45076.81069444444</v>
+        <v>45015.05399305555</v>
       </c>
       <c r="G47" t="n">
-        <v>1931</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="48">
@@ -1952,30 +1952,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gary Harrell</t>
+          <t>Michael Short</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>27492 James Brooks Suite 030
-Nicolebury, FM 37383</t>
+          <t>416 Blackburn Hollow Apt. 715
+Port Lindaside, TX 94541</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>jamie54@example.org</t>
+          <t>elliskimberly@example.com</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>981.554.3010</t>
+          <t>+1-846-920-1188x96193</t>
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45145.8165625</v>
+        <v>45326.31159722222</v>
       </c>
       <c r="G48" t="n">
-        <v>5006</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="49">
@@ -1984,30 +1984,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Donna Collins</t>
+          <t>Steve Castillo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>9288 Mary Trail
-Port Tracyhaven, PW 55439</t>
+          <t>001 Bell Spur
+New Patrickbury, IL 96125</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>lesliewhite@example.com</t>
+          <t>isabelgreen@example.net</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>(770)220-2207x963</t>
+          <t>001-553-930-8231x430</t>
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45455.82540509259</v>
+        <v>45418.30511574074</v>
       </c>
       <c r="G49" t="n">
-        <v>3004</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="50">
@@ -2016,30 +2016,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jonathan Klein</t>
+          <t>Lisa Ross MD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>73755 Sharon Unions
-North Heatherchester, UT 97065</t>
+          <t>4267 Kerry Forge Suite 712
+Annaport, KY 74295</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>sellersleonard@example.com</t>
+          <t>ejacobs@example.net</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>324.790.1554</t>
+          <t>525.275.0279</t>
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>45197.46778935185</v>
+        <v>45448.01076388889</v>
       </c>
       <c r="G50" t="n">
-        <v>7266</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="51">
@@ -2048,30 +2048,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Shawn Garrett</t>
+          <t>Christopher King</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>007 Veronica Landing
-North Lisaview, CT 66020</t>
+          <t>030 Hamilton Parkways
+West Kristiland, OR 04901</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>robert97@example.com</t>
+          <t>burtonstephanie@example.net</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>001-505-259-5689</t>
+          <t>899.205.6071x592</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45418.47540509259</v>
+        <v>45047.92712962963</v>
       </c>
       <c r="G51" t="n">
-        <v>7222</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="52">
@@ -2080,30 +2080,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Keith Harding</t>
+          <t>Taylor Cunningham</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>37338 Mccormick Points Apt. 091
-Port Michelleton, MA 59425</t>
+          <t>74209 Ochoa Springs Apt. 729
+Lake Paulmouth, NE 34912</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>nicholas94@example.org</t>
+          <t>stephanie78@example.org</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>+1-255-883-4838x901</t>
+          <t>7986746915</t>
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45646.02173611111</v>
+        <v>45097.44880787037</v>
       </c>
       <c r="G52" t="n">
-        <v>9036</v>
+        <v>7707</v>
       </c>
     </row>
     <row r="53">
@@ -2112,30 +2112,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Steven Mendoza</t>
+          <t>Michael Wilson</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>755 Lewis Mall Apt. 561
-West Kenneth, WI 12663</t>
+          <t>085 Glenda Parkway Apt. 430
+West Davidview, RI 55407</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>bryan77@example.net</t>
+          <t>leealexander@example.net</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>001-471-811-6614x911</t>
+          <t>+1-699-727-5841x51915</t>
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45252.57450231481</v>
+        <v>44965.66515046296</v>
       </c>
       <c r="G53" t="n">
-        <v>5715</v>
+        <v>9250</v>
       </c>
     </row>
     <row r="54">
@@ -2144,30 +2144,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chase Davis</t>
+          <t>Jennifer Duncan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20361 Freeman Parkways
-New Jeffreyton, GA 72860</t>
+          <t>742 Peterson Trafficway Suite 033
+Port Tammybury, OH 15724</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>oallen@example.org</t>
+          <t>pbullock@example.com</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>(325)714-9098x8608</t>
+          <t>400.564.5923x8648</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45636.68770833333</v>
+        <v>45634.35138888889</v>
       </c>
       <c r="G54" t="n">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="55">
@@ -2176,30 +2176,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Samantha Pruitt</t>
+          <t>Patrick Bailey</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>08484 Wilson Brook Apt. 978
-Perezside, OR 94895</t>
+          <t>9083 Teresa Haven
+Sullivanberg, PW 56374</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>bakerlarry@example.org</t>
+          <t>hannah99@example.net</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>001-336-593-6176x10154</t>
+          <t>001-620-676-6370x40705</t>
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45471.00423611111</v>
+        <v>45330.37866898148</v>
       </c>
       <c r="G55" t="n">
-        <v>4071</v>
+        <v>7164</v>
       </c>
     </row>
     <row r="56">
@@ -2208,30 +2208,30 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Jennifer Johnson</t>
+          <t>Jasmine Martin</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>37272 Paul Loop Apt. 218
-Murrayshire, TN 97499</t>
+          <t>828 Christopher Prairie Suite 107
+Lake Michael, OH 21444</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>bayers@example.com</t>
+          <t>zfranklin@example.net</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>(440)272-0889x320</t>
+          <t>854.686.5870x42634</t>
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45212.7803587963</v>
+        <v>45358.78603009259</v>
       </c>
       <c r="G56" t="n">
-        <v>6414</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="57">
@@ -2240,30 +2240,30 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Margaret Lee</t>
+          <t>Charles Griffith</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>306 Kimberly Gardens
-Annaborough, FM 46188</t>
+          <t>73187 David Views
+Nicoleland, SC 02204</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rick37@example.org</t>
+          <t>youngmario@example.org</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>001-546-939-1769</t>
+          <t>+1-410-553-2427</t>
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45156.24391203704</v>
+        <v>45530.54767361111</v>
       </c>
       <c r="G57" t="n">
-        <v>3596</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="58">
@@ -2272,30 +2272,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Kimberly Johnson</t>
+          <t>Ryan Hill DDS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>8754 Rich Ville Suite 353
-Gregoryfurt, FL 51266</t>
+          <t>3567 Hart Manor
+Ryanhaven, NM 08468</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>bradleydillon@example.net</t>
+          <t>salazarmichael@example.com</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>503-628-4032x8102</t>
+          <t>001-388-936-0043x289</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45051.77097222222</v>
+        <v>45320.38120370371</v>
       </c>
       <c r="G58" t="n">
-        <v>4518</v>
+        <v>9049</v>
       </c>
     </row>
     <row r="59">
@@ -2304,30 +2304,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Paul Davies</t>
+          <t>Cynthia Burton</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4693 Jerome Mountains
-Bellview, AL 95996</t>
+          <t>74591 Garcia Ports
+South Angelaton, SD 86918</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>pmills@example.org</t>
+          <t>rsmith@example.org</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>+1-201-516-7363x267</t>
+          <t>(347)525-8223x4892</t>
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45372.32916666667</v>
+        <v>45167.19778935185</v>
       </c>
       <c r="G59" t="n">
-        <v>2587</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="60">
@@ -2336,30 +2336,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Timothy Roberts</t>
+          <t>Jennifer Delgado</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>267 Castro Valley Suite 759
-Michaelton, OH 58862</t>
+          <t>7595 Douglas Burgs Suite 134
+Port Kevin, LA 16292</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>scotttorres@example.net</t>
+          <t>jessecampbell@example.net</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3629189043</t>
+          <t>001-807-428-5941x22382</t>
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44961.09829861111</v>
+        <v>44990.31880787037</v>
       </c>
       <c r="G60" t="n">
-        <v>8475</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="61">
@@ -2368,30 +2368,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Rebecca Santana</t>
+          <t>James Allen</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>369 Williams Streets Suite 065
-Bensonhaven, TN 17546</t>
+          <t>968 Johnson Orchard
+Jamesmouth, NJ 27025</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rhonda43@example.com</t>
+          <t>brandon39@example.org</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>827.715.2805x2343</t>
+          <t>7294220519</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45201.08315972222</v>
+        <v>45002.98726851852</v>
       </c>
       <c r="G61" t="n">
-        <v>3422</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="62">
@@ -2400,30 +2400,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Zachary Mckinney</t>
+          <t>Brandy Baker</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>21859 Veronica Inlet Apt. 938
-West Coreyfort, MD 83357</t>
+          <t>334 Kristine Glen
+Evansmouth, LA 32705</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ashley76@example.org</t>
+          <t>tanya07@example.org</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>001-207-879-8142x360</t>
+          <t>857.606.2834x83037</t>
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45360.31126157408</v>
+        <v>44967.81814814815</v>
       </c>
       <c r="G62" t="n">
-        <v>9478</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="63">
@@ -2432,30 +2432,30 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kathy Duncan</t>
+          <t>Nancy Clark PhD</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>USNS Black
-FPO AA 71591</t>
+          <t>003 Coleman Stravenue Apt. 427
+New Craig, NC 73186</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>leonardstephen@example.net</t>
+          <t>cmorales@example.org</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>(313)783-3943x49416</t>
+          <t>2317919831</t>
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>45245.60243055555</v>
+        <v>45019.18028935185</v>
       </c>
       <c r="G63" t="n">
-        <v>6599</v>
+        <v>5821</v>
       </c>
     </row>
     <row r="64">
@@ -2464,30 +2464,30 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Allison Myers</t>
+          <t>Joshua Clark</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>528 Tina Prairie Suite 693
-North David, VA 81070</t>
+          <t>USNS Jackson
+FPO AP 76777</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>raymondwhite@example.com</t>
+          <t>kaitlynandrews@example.net</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>438.788.5697</t>
+          <t>+1-790-580-6905x4647</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44929.01710648148</v>
+        <v>45347.64877314815</v>
       </c>
       <c r="G64" t="n">
-        <v>3522</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="65">
@@ -2496,30 +2496,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Katelyn Davis</t>
+          <t>Nicole Morton</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3426 Reed Forks
-Cruzside, MD 08177</t>
+          <t>PSC 7229, Box 2812
+APO AE 35654</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>qzhang@example.net</t>
+          <t>jacob53@example.com</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>368.606.8947x66588</t>
+          <t>(312)717-1251x3787</t>
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45531.47857638889</v>
+        <v>45588.79872685186</v>
       </c>
       <c r="G65" t="n">
-        <v>2652</v>
+        <v>9884</v>
       </c>
     </row>
     <row r="66">
@@ -2528,30 +2528,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>John Tate</t>
+          <t>Stephanie Rasmussen</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>070 Roger Square Suite 950
-Port Hannahshire, IL 87022</t>
+          <t>340 Justin Forges
+Rachelstad, AZ 83420</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>tranjacob@example.org</t>
+          <t>jcontreras@example.net</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>893.403.6687</t>
+          <t>500.725.5603x1954</t>
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45205.69833333333</v>
+        <v>45396.23081018519</v>
       </c>
       <c r="G66" t="n">
-        <v>2423</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="67">
@@ -2560,30 +2560,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Patricia Eaton PhD</t>
+          <t>Jody Hall</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>9116 James Landing Suite 102
-New Danielle, TN 30198</t>
+          <t>4389 Evans Heights Apt. 113
+South Margaret, ID 01586</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>reedsamantha@example.net</t>
+          <t>kmedina@example.net</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2055692254</t>
+          <t>320-649-7902x88600</t>
         </is>
       </c>
       <c r="F67" s="2" t="n">
-        <v>45323.08627314815</v>
+        <v>45234.36846064815</v>
       </c>
       <c r="G67" t="n">
-        <v>9825</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="68">
@@ -2592,30 +2592,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Richard Graham</t>
+          <t>David Reynolds</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>912 Hogan Squares Apt. 646
-Lisaton, SD 35380</t>
+          <t>0724 Clark Wells
+South Donaldport, MH 42402</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>johnallen@example.com</t>
+          <t>manderson@example.com</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>001-970-627-6604x995</t>
+          <t>001-468-775-4592x38455</t>
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45475.73512731482</v>
+        <v>44948.72594907408</v>
       </c>
       <c r="G68" t="n">
-        <v>3330</v>
+        <v>9902</v>
       </c>
     </row>
     <row r="69">
@@ -2624,30 +2624,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Collin Garcia</t>
+          <t>Chase Neal</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PSC 8329, Box 3478
-APO AP 56608</t>
+          <t>3157 Ball Brook
+East Hollyberg, GA 75144</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>derek45@example.org</t>
+          <t>melissatran@example.org</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>001-563-666-1923x4017</t>
+          <t>+1-511-824-7130x729</t>
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45174.88143518518</v>
+        <v>45291.68415509259</v>
       </c>
       <c r="G69" t="n">
-        <v>9832</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="70">
@@ -2656,30 +2656,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Leah Becker</t>
+          <t>Derek Pham</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>13746 Brett Coves Suite 945
-Jeffreybury, OH 09096</t>
+          <t>649 Harris Mission
+East Tamaraport, UT 12241</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>maria95@example.com</t>
+          <t>phillipssusan@example.com</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>+1-383-885-5362</t>
+          <t>6228973485</t>
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>45508.058125</v>
+        <v>45485.15119212963</v>
       </c>
       <c r="G70" t="n">
-        <v>5564</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="71">
@@ -2688,30 +2688,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Andrea Sanchez</t>
+          <t>Alexander Scott</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>78850 Douglas Alley
-Leeborough, IL 25109</t>
+          <t>1714 Danielle Underpass
+Spencetown, GU 28000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>valdezdouglas@example.com</t>
+          <t>yskinner@example.com</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>(310)480-5703</t>
+          <t>+1-908-724-9556x19734</t>
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>45261.14128472222</v>
+        <v>45512.01409722222</v>
       </c>
       <c r="G71" t="n">
-        <v>7010</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="72">
@@ -2720,30 +2720,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Danielle Bishop</t>
+          <t>Alice Bailey</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>427 Perez Ridges Suite 982
-Davidburgh, PR 60300</t>
+          <t>36655 Collins Shoal
+New Allison, SC 20036</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>julie56@example.com</t>
+          <t>wtaylor@example.com</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>+1-912-848-2334x8586</t>
+          <t>(997)670-2185x60539</t>
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>45650.30597222222</v>
+        <v>45396.3671875</v>
       </c>
       <c r="G72" t="n">
-        <v>2818</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="73">
@@ -2752,30 +2752,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Rita Mann</t>
+          <t>Connor Wagner</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Unit 9062 Box 7393
-DPO AA 33714</t>
+          <t>998 Mckinney Knolls Suite 082
+New Kelly, NJ 28738</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ecook@example.net</t>
+          <t>dwilliams@example.net</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>201-318-3991x8894</t>
+          <t>(619)302-6663x4199</t>
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>45512.42328703704</v>
+        <v>44958.34685185185</v>
       </c>
       <c r="G73" t="n">
-        <v>8546</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="74">
@@ -2784,30 +2784,30 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Gary Floyd</t>
+          <t>Alex Schaefer</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>98044 Alejandro Loaf Apt. 403
-Lake Michael, AL 89554</t>
+          <t>6965 Amy Viaduct
+Randychester, KY 43684</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>amorgan@example.com</t>
+          <t>bperez@example.net</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>(337)798-6937x652</t>
+          <t>796.251.5210</t>
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45580.16767361111</v>
+        <v>45335.25049768519</v>
       </c>
       <c r="G74" t="n">
-        <v>4177</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="75">
@@ -2816,30 +2816,30 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Brian Martinez</t>
+          <t>Victor Henderson</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>912 Derek Station
-West Jeffrey, VT 82641</t>
+          <t>1799 West Club
+Vargasport, MN 70995</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>matthewsstephen@example.com</t>
+          <t>oblankenship@example.org</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>949.236.7394x8614</t>
+          <t>216-936-0537x213</t>
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45550.55719907407</v>
+        <v>45464.64788194445</v>
       </c>
       <c r="G75" t="n">
-        <v>6401</v>
+        <v>8594</v>
       </c>
     </row>
     <row r="76">
@@ -2848,30 +2848,30 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jessica Lane</t>
+          <t>Jillian Williams</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>25309 Reyes Brook Suite 961
-Ianhaven, FM 18702</t>
+          <t>74442 Valerie Plains
+Perryport, NE 39090</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>michelle99@example.net</t>
+          <t>williamsjared@example.org</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>685.690.2750x88176</t>
+          <t>749.903.8792x0768</t>
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>45520.06285879629</v>
+        <v>45149.98679398148</v>
       </c>
       <c r="G76" t="n">
-        <v>6080</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="77">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Derek Peterson</t>
+          <t>Michael Mullins</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>7519 Cox Spurs
-West Dean, ID 21782</t>
+          <t>4429 Garrison Courts Apt. 122
+Armstronghaven, ND 20183</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vconner@example.net</t>
+          <t>sotoangelica@example.net</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>299-357-1655x492</t>
+          <t>900.943.7722x35650</t>
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>45604.03576388889</v>
+        <v>45621.03193287037</v>
       </c>
       <c r="G77" t="n">
-        <v>8890</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="78">
@@ -2912,30 +2912,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ann Griffin</t>
+          <t>Raymond Brown</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>7038 Joseph View
-South Crystal, TX 37612</t>
+          <t>1898 Alan Mountain Apt. 375
+Fordborough, GU 49811</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>johnny77@example.com</t>
+          <t>vsmith@example.com</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>703-736-2726x663</t>
+          <t>901-692-9531x15958</t>
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>45199.38596064815</v>
+        <v>45107.58909722222</v>
       </c>
       <c r="G78" t="n">
-        <v>5051</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="79">
@@ -2944,30 +2944,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Benjamin Dougherty</t>
+          <t>Susan Shaffer</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>77262 Robinson Turnpike
-Zacharyville, AS 39791</t>
+          <t>4522 Andrew Inlet
+Lake Susan, WI 32714</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>richardsonjustin@example.com</t>
+          <t>lmoore@example.com</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>813.938.8263</t>
+          <t>958-228-6854</t>
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>45626.80950231481</v>
+        <v>45422.21170138889</v>
       </c>
       <c r="G79" t="n">
-        <v>5113</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="80">
@@ -2976,30 +2976,30 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Teresa Walker</t>
+          <t>Mary Nelson</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5023 James Springs
-Lisaton, LA 52281</t>
+          <t>74347 Garrett Gardens
+North Samantha, VT 12970</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>natashasherman@example.com</t>
+          <t>barnettjennifer@example.com</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>642-881-4924x82163</t>
+          <t>(572)445-8931x59297</t>
         </is>
       </c>
       <c r="F80" s="2" t="n">
-        <v>45385.37641203704</v>
+        <v>45101.97371527777</v>
       </c>
       <c r="G80" t="n">
-        <v>4483</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="81">
@@ -3008,30 +3008,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Faith Wells</t>
+          <t>Lisa Woods</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>USNV Jackson
-FPO AE 29960</t>
+          <t>4561 Dalton Hollow
+Amandaburgh, CO 87226</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>kennedyjonathan@example.com</t>
+          <t>cindybradley@example.net</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>912.218.3875x64062</t>
+          <t>8068771796</t>
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>45536.29495370371</v>
+        <v>45633.23769675926</v>
       </c>
       <c r="G81" t="n">
-        <v>1026</v>
+        <v>9217</v>
       </c>
     </row>
     <row r="82">
@@ -3040,30 +3040,30 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Christopher Gilbert</t>
+          <t>Marie George</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2977 Jill Tunnel
-Port Betty, KY 82744</t>
+          <t>USNV Newton
+FPO AE 82506</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>david53@example.org</t>
+          <t>sarahkelly@example.com</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>262.852.7711x209</t>
+          <t>+1-933-273-7681x920</t>
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>45452.00405092593</v>
+        <v>45295.40092592593</v>
       </c>
       <c r="G82" t="n">
-        <v>4444</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="83">
@@ -3072,30 +3072,30 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ashley Herrera</t>
+          <t>James Wright</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0187 Jeffrey Flat
-Jenniferborough, WI 80293</t>
+          <t>10974 Carrie Vista
+Lake Nicole, IN 43008</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>gonzalezjustin@example.org</t>
+          <t>dustinanderson@example.com</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>+1-953-692-4277</t>
+          <t>329.997.9208x66324</t>
         </is>
       </c>
       <c r="F83" s="2" t="n">
-        <v>45205.21809027778</v>
+        <v>45047.45590277778</v>
       </c>
       <c r="G83" t="n">
-        <v>9212</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="84">
@@ -3104,30 +3104,30 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Isaac Fox</t>
+          <t>Cory Pierce</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>933 Phillips Club
-North Austin, SD 43477</t>
+          <t>0252 Michelle Hill
+West Natalieberg, NV 36094</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>tammyortiz@example.com</t>
+          <t>jason59@example.org</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>(674)408-6586x248</t>
+          <t>933-562-1505x0969</t>
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>45171.28005787037</v>
+        <v>45103.54606481481</v>
       </c>
       <c r="G84" t="n">
-        <v>8518</v>
+        <v>7256</v>
       </c>
     </row>
     <row r="85">
@@ -3136,30 +3136,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pam Cox</t>
+          <t>Jacqueline Roth</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>407 Paula Springs
-North Amandaburgh, MP 95853</t>
+          <t>921 Phillips Cliffs Apt. 271
+Lake Elizabeth, WV 02404</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>kimberly41@example.net</t>
+          <t>ashleystevenson@example.net</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>318-635-8065x99999</t>
+          <t>212-357-7326x73569</t>
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>45303.28414351852</v>
+        <v>45148.03667824074</v>
       </c>
       <c r="G85" t="n">
-        <v>1917</v>
+        <v>9951</v>
       </c>
     </row>
     <row r="86">
@@ -3168,30 +3168,30 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ashley Preston</t>
+          <t>Julie Phillips</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>7537 Joe Burgs Apt. 711
-Pruittshire, MD 38768</t>
+          <t>525 Leonard Burg Suite 900
+Lake Chelseamouth, DC 71381</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>kellyheather@example.org</t>
+          <t>mccannmeredith@example.net</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>874.364.2482x7085</t>
+          <t>533-355-5082x7298</t>
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>45624.803125</v>
+        <v>45267.36128472222</v>
       </c>
       <c r="G86" t="n">
-        <v>7310</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="87">
@@ -3200,30 +3200,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Marissa Gonzalez</t>
+          <t>Jordan Foster</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>USCGC Haynes
-FPO AP 20178</t>
+          <t>014 Cody Island
+Martinezfort, NH 96627</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>smithrussell@example.org</t>
+          <t>krodriguez@example.org</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>797.909.8679</t>
+          <t>4532987398</t>
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>45633.19130787037</v>
+        <v>45621.60663194444</v>
       </c>
       <c r="G87" t="n">
-        <v>6646</v>
+        <v>8346</v>
       </c>
     </row>
     <row r="88">
@@ -3232,30 +3232,30 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Stephanie Pena</t>
+          <t>Roger Turner</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3378 Knight Ferry
-East Joemouth, MN 13066</t>
+          <t>PSC 3021, Box 4281
+APO AE 34714</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>nthornton@example.com</t>
+          <t>curtistravis@example.org</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>+1-457-822-7938</t>
+          <t>223-568-7496x8212</t>
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>45547.96651620371</v>
+        <v>45212.70224537037</v>
       </c>
       <c r="G88" t="n">
-        <v>3135</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="89">
@@ -3264,30 +3264,30 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mia Boone</t>
+          <t>Dr. Frank Henderson DVM</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Unit 3218 Box 3166
-DPO AA 99053</t>
+          <t>703 Zuniga Path Apt. 386
+North Jeffrey, PW 93979</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>woodpaul@example.com</t>
+          <t>donald10@example.org</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>+1-709-791-1407x30016</t>
+          <t>(464)285-2271</t>
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>45020.954375</v>
+        <v>45057.33767361111</v>
       </c>
       <c r="G89" t="n">
-        <v>1740</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="90">
@@ -3296,30 +3296,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Katherine Aguilar</t>
+          <t>Ashlee Bryant</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3139 Bell Mews
-North Aaron, WA 72963</t>
+          <t>01762 Yates Port
+Joneston, MI 65950</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>michaelkirby@example.net</t>
+          <t>zterry@example.net</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>(240)471-7874x8629</t>
+          <t>(434)706-7153x62489</t>
         </is>
       </c>
       <c r="F90" s="2" t="n">
-        <v>45142.99328703704</v>
+        <v>45257.99341435185</v>
       </c>
       <c r="G90" t="n">
-        <v>5857</v>
+        <v>7201</v>
       </c>
     </row>
     <row r="91">
@@ -3328,30 +3328,30 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Charles Copeland</t>
+          <t>John Ramos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>6355 Beltran Park Suite 598
-Alanstad, DC 03667</t>
+          <t>698 Vargas Canyon Suite 871
+Millerview, KS 30929</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>zstevenson@example.org</t>
+          <t>egriffin@example.com</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>001-867-713-8417</t>
+          <t>431-907-2921x66334</t>
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>45433.86157407407</v>
+        <v>45599.77079861111</v>
       </c>
       <c r="G91" t="n">
-        <v>3317</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="92">
@@ -3360,30 +3360,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Joel Rodriguez</t>
+          <t>Katherine Zamora</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>75948 Frederick Springs Apt. 241
-Perezmouth, MI 61300</t>
+          <t>38569 Mcbride Hollow Suite 491
+Lisaborough, CT 93748</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>sarahnelson@example.net</t>
+          <t>klinewendy@example.org</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>001-848-635-9757</t>
+          <t>001-677-773-2228x427</t>
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>45362.92128472222</v>
+        <v>45037.45037037037</v>
       </c>
       <c r="G92" t="n">
-        <v>1635</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="93">
@@ -3392,30 +3392,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Brandon Thomas</t>
+          <t>John Bryant</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>555 Taylor Station
-Swansonshire, PA 21153</t>
+          <t>537 Nathan Knoll
+Stephenville, OK 62528</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>millseric@example.com</t>
+          <t>amy10@example.net</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>203-581-8417x77044</t>
+          <t>847-898-3494x3000</t>
         </is>
       </c>
       <c r="F93" s="2" t="n">
-        <v>45083.45938657408</v>
+        <v>45279.14942129629</v>
       </c>
       <c r="G93" t="n">
-        <v>1289</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="94">
@@ -3424,30 +3424,30 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Brandon Pennington</t>
+          <t>Lori Butler</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>037 Sharon Point Suite 488
-Cynthiaton, TN 60894</t>
+          <t>54868 Albert Plains Apt. 075
+East Peterhaven, NJ 57469</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>jlong@example.org</t>
+          <t>hjohnson@example.com</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>(219)784-8595</t>
+          <t>(222)503-6960x727</t>
         </is>
       </c>
       <c r="F94" s="2" t="n">
-        <v>45454.14037037037</v>
+        <v>45208.85965277778</v>
       </c>
       <c r="G94" t="n">
-        <v>6240</v>
+        <v>7121</v>
       </c>
     </row>
     <row r="95">
@@ -3456,30 +3456,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>April Keller</t>
+          <t>Jay Clark</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>9959 Mullins Mission
-Lake Sandra, MS 65144</t>
+          <t>USNS Case
+FPO AE 42500</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>brendairwin@example.com</t>
+          <t>greenchristine@example.net</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>001-421-786-9118</t>
+          <t>001-693-356-5224x35117</t>
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>45088.58071759259</v>
+        <v>45428.17431712963</v>
       </c>
       <c r="G95" t="n">
-        <v>1273</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="96">
@@ -3488,30 +3488,30 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Steve Berry</t>
+          <t>Jean King</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>66080 Hansen Summit Suite 951
-North Alicia, MH 76362</t>
+          <t>83391 Stanley Trail
+Port Beth, NM 52491</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>justinblack@example.net</t>
+          <t>hillbrittany@example.com</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>+1-399-859-8922</t>
+          <t>929-779-0173</t>
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>45023.21787037037</v>
+        <v>44965.30532407408</v>
       </c>
       <c r="G96" t="n">
-        <v>5039</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="97">
@@ -3520,30 +3520,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mary Wilson</t>
+          <t>Justin Vasquez</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>895 Lawrence Parks Suite 830
-North Anthony, WA 71048</t>
+          <t>34744 Kirk Brooks Suite 876
+New Johnview, MI 58560</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>fthompson@example.net</t>
+          <t>williamsonlisa@example.com</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>(632)888-5532</t>
+          <t>286-402-9768x4660</t>
         </is>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44940.36697916667</v>
+        <v>45559.60134259259</v>
       </c>
       <c r="G97" t="n">
-        <v>6336</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="98">
@@ -3552,30 +3552,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>James Martin</t>
+          <t>Marissa Brooks</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>USNV Woods
-FPO AE 02911</t>
+          <t>321 Christopher Estates
+Meganborough, TX 15174</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vortega@example.org</t>
+          <t>thompsonthomas@example.com</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>244-234-5880</t>
+          <t>668.863.2312</t>
         </is>
       </c>
       <c r="F98" s="2" t="n">
-        <v>45062.99005787037</v>
+        <v>45285.91237268518</v>
       </c>
       <c r="G98" t="n">
-        <v>3619</v>
+        <v>7244</v>
       </c>
     </row>
     <row r="99">
@@ -3584,30 +3584,30 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Beth Simpson</t>
+          <t>Amy Navarro</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>9606 Danny Grove Suite 179
-East Samuel, FL 71042</t>
+          <t>504 Victor Camp
+Lake Carolview, RI 74984</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>zwilliams@example.org</t>
+          <t>patriciaprice@example.com</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>867-278-7867</t>
+          <t>505.256.5809</t>
         </is>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44991.91560185186</v>
+        <v>45433.46008101852</v>
       </c>
       <c r="G99" t="n">
-        <v>2529</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="100">
@@ -3616,30 +3616,30 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Kenneth Cardenas</t>
+          <t>Andrew Daniels</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8727 Frye Turnpike
-Port Bonnietown, AR 04414</t>
+          <t>45387 Garza Knoll Suite 811
+East Christopherton, MS 22973</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>taylorevans@example.net</t>
+          <t>mary63@example.net</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>(493)736-1793x7747</t>
+          <t>(908)308-0288x422</t>
         </is>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44990.98165509259</v>
+        <v>45620.33407407408</v>
       </c>
       <c r="G100" t="n">
-        <v>9957</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="101">
@@ -3648,30 +3648,30 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jessica Wolf</t>
+          <t>Alison Higgins</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Unit 4353 Box 3414
-DPO AE 21699</t>
+          <t>12112 Dana Path
+Snyderfort, VT 49380</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>karenbrandt@example.com</t>
+          <t>yhuang@example.net</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>(356)747-9391x418</t>
+          <t>419-735-3892</t>
         </is>
       </c>
       <c r="F101" s="2" t="n">
-        <v>45010.14238425926</v>
+        <v>45335.84953703704</v>
       </c>
       <c r="G101" t="n">
-        <v>5649</v>
+        <v>6874</v>
       </c>
     </row>
   </sheetData>
